--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_24_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_24_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1575448.047614957</v>
+        <v>1570900.627719183</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>763237.3199885431</v>
+        <v>416855.1052283203</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10303074.07966822</v>
+        <v>10437581.96848356</v>
       </c>
     </row>
     <row r="11">
@@ -664,22 +664,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>116.8405921356975</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>187.5255871663199</v>
+        <v>178.8948621820432</v>
       </c>
       <c r="G2" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666378</v>
+        <v>77.08171901666373</v>
       </c>
       <c r="S2" t="n">
         <v>158.7758131900531</v>
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -746,22 +746,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409149</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265839</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.4328956284632</v>
+        <v>72.43289562846316</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -797,10 +797,10 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>165.0765230314868</v>
       </c>
       <c r="W3" t="n">
-        <v>27.7236480525089</v>
+        <v>187.52558716632</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>52.21594625443468</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -840,10 +840,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>20.00402729331206</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402852</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709386</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.8707348436268</v>
+        <v>86.80225582600272</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>308.2302560714734</v>
       </c>
       <c r="I5" t="n">
-        <v>78.16360657708302</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>130.8133087092505</v>
+        <v>139.4987618372554</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>307.1442478716882</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>129.3079261827998</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -992,10 +992,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>94.50081326185514</v>
+        <v>96.4703783524613</v>
       </c>
       <c r="I6" t="n">
-        <v>36.29946757904886</v>
+        <v>43.32085084937507</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>31.66886087721433</v>
+        <v>44.33060630074782</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>141.3629830843606</v>
       </c>
       <c r="T6" t="n">
-        <v>192.7632183107638</v>
+        <v>193.5852120974427</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>1.004952051862049</v>
       </c>
     </row>
     <row r="7">
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>97.61944171931027</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>18.15430933923926</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,16 +1098,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.59469128425556</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>108.0728512656386</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>113.3237299842591</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>206.0628463779988</v>
       </c>
       <c r="G8" t="n">
-        <v>411.4287756738078</v>
+        <v>11.87073484362677</v>
       </c>
       <c r="H8" t="n">
-        <v>299.8005904082742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>61.12497568263618</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.1375816037212</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>111.3654438955708</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1226,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>114.3559087419108</v>
+        <v>20.27697994470863</v>
       </c>
       <c r="H9" t="n">
-        <v>92.21702052251145</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>28.15788129210611</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,19 +1259,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>16.98703979721924</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>133.1827058773499</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8050167968196</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.893562958718216</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1305,16 +1305,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.2532534423388</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>103.1923173770326</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>4.138199169715008</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>5.994152416891779</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>99.15891518508479</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>125.0721477169169</v>
       </c>
     </row>
     <row r="11">
@@ -1384,10 +1384,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>283.1540821444115</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>166.1032380313638</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.9994691657081</v>
+        <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824774</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.142909873409792</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414546</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
-        <v>190.7165703189231</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7478006422472</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1539,16 +1539,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004732</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>194.0641876011614</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>69.91764006859175</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1618,13 +1618,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>356.5845196044197</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.5630920045443</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081963</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
-        <v>199.1970568374742</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9088959876463</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1700,10 +1700,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.4224477376697</v>
+        <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561457</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,13 +1736,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.4255876952162</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T15" t="n">
-        <v>188.3907690366107</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7492064608734</v>
+        <v>225.7478006422472</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>115.9958965790346</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108356</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
-        <v>181.338488358459</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4819944627618</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1854515484204</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1858,10 +1858,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.5630920045443</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.32106446353113</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
-        <v>199.1970568374742</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9088959876463</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1937,10 +1937,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>134.4224477376697</v>
+        <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>84.02406320561455</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,13 +1973,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.4255876952162</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T18" t="n">
-        <v>188.3907690366107</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U18" t="n">
-        <v>225.7492064608734</v>
+        <v>225.7478006422472</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2016,7 +2016,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>67.18075159108353</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.338488358459</v>
+        <v>55.5207962406006</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4819944627618</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892481</v>
       </c>
       <c r="V19" t="n">
-        <v>162.2986303367743</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2095,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H20" t="n">
-        <v>283.5630920045443</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.32106446353113</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.1970568374742</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9088959876463</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2174,10 +2174,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>134.4224477376697</v>
+        <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>84.02406320561455</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,13 +2210,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>117.4255876952162</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T21" t="n">
-        <v>188.3907690366107</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U21" t="n">
-        <v>225.7492064608734</v>
+        <v>225.7478006422472</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2250,13 +2250,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>2.119387955707861</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.338488358459</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4819944627618</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1854515484204</v>
+        <v>240.5320234084492</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>97.02629574295494</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892427719</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2721,16 +2721,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>99.9742741983392</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>35.88641949135544</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2794,10 +2794,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>107.3363007608859</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>20.88994825141578</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3429,13 +3429,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3483,10 +3483,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>207.0967504439648</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>60.64713141731118</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3903,10 +3903,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>105.1820732698679</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3994,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>19.91555826189063</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>511.8624171433432</v>
+        <v>511.8624171433439</v>
       </c>
       <c r="C2" t="n">
-        <v>511.8624171433432</v>
+        <v>511.8624171433439</v>
       </c>
       <c r="D2" t="n">
-        <v>393.841617006275</v>
+        <v>511.8624171433439</v>
       </c>
       <c r="E2" t="n">
-        <v>393.841617006275</v>
+        <v>511.8624171433439</v>
       </c>
       <c r="F2" t="n">
-        <v>204.4218319897903</v>
+        <v>331.1605361513811</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330559</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330559</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678478</v>
+        <v>21.03371160678506</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058939</v>
+        <v>80.81213159058967</v>
       </c>
       <c r="L2" t="n">
         <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644753</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123826</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985581</v>
+        <v>649.4845259985584</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020263</v>
+        <v>734.4611726020269</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652801</v>
       </c>
       <c r="R2" t="n">
-        <v>672.2420264262252</v>
+        <v>672.2420264262258</v>
       </c>
       <c r="S2" t="n">
-        <v>511.8624171433432</v>
+        <v>511.8624171433439</v>
       </c>
       <c r="T2" t="n">
-        <v>511.8624171433432</v>
+        <v>511.8624171433439</v>
       </c>
       <c r="U2" t="n">
-        <v>511.8624171433432</v>
+        <v>511.8624171433439</v>
       </c>
       <c r="V2" t="n">
-        <v>511.8624171433432</v>
+        <v>511.8624171433439</v>
       </c>
       <c r="W2" t="n">
-        <v>511.8624171433432</v>
+        <v>511.8624171433439</v>
       </c>
       <c r="X2" t="n">
-        <v>511.8624171433432</v>
+        <v>511.8624171433439</v>
       </c>
       <c r="Y2" t="n">
-        <v>511.8624171433432</v>
+        <v>511.8624171433439</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>329.4357102594318</v>
+        <v>320.7740599518761</v>
       </c>
       <c r="C3" t="n">
-        <v>329.4357102594318</v>
+        <v>320.7740599518761</v>
       </c>
       <c r="D3" t="n">
-        <v>329.4357102594318</v>
+        <v>320.7740599518761</v>
       </c>
       <c r="E3" t="n">
-        <v>329.4357102594318</v>
+        <v>161.5366049464206</v>
       </c>
       <c r="F3" t="n">
-        <v>329.4357102594318</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G3" t="n">
-        <v>191.8965290818809</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H3" t="n">
-        <v>90.0361681215378</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I3" t="n">
-        <v>30.53661367296053</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024222</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772649</v>
+        <v>183.5548280772651</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140243</v>
+        <v>338.7690911140246</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546601</v>
+        <v>512.5000587546605</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476347</v>
+        <v>649.2101578476352</v>
       </c>
       <c r="P3" t="n">
-        <v>739.598998701706</v>
+        <v>739.5989987017066</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652801</v>
       </c>
       <c r="R3" t="n">
-        <v>676.9378076264277</v>
+        <v>676.9378076264285</v>
       </c>
       <c r="S3" t="n">
-        <v>525.654732181024</v>
+        <v>676.9378076264285</v>
       </c>
       <c r="T3" t="n">
-        <v>525.654732181024</v>
+        <v>676.9378076264285</v>
       </c>
       <c r="U3" t="n">
-        <v>525.654732181024</v>
+        <v>676.9378076264285</v>
       </c>
       <c r="V3" t="n">
-        <v>525.654732181024</v>
+        <v>510.193844968361</v>
       </c>
       <c r="W3" t="n">
-        <v>497.6510472794998</v>
+        <v>320.7740599518761</v>
       </c>
       <c r="X3" t="n">
-        <v>497.6510472794998</v>
+        <v>320.7740599518761</v>
       </c>
       <c r="Y3" t="n">
-        <v>497.6510472794998</v>
+        <v>320.7740599518761</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>49.45491281910415</v>
+        <v>750.1023486652801</v>
       </c>
       <c r="C4" t="n">
-        <v>49.45491281910415</v>
+        <v>750.1023486652801</v>
       </c>
       <c r="D4" t="n">
-        <v>49.45491281910415</v>
+        <v>750.1023486652801</v>
       </c>
       <c r="E4" t="n">
-        <v>49.45491281910415</v>
+        <v>750.1023486652801</v>
       </c>
       <c r="F4" t="n">
-        <v>49.45491281910415</v>
+        <v>697.3589686102956</v>
       </c>
       <c r="G4" t="n">
-        <v>49.45491281910415</v>
+        <v>697.3589686102956</v>
       </c>
       <c r="H4" t="n">
-        <v>49.45491281910415</v>
+        <v>697.3589686102956</v>
       </c>
       <c r="I4" t="n">
-        <v>49.45491281910415</v>
+        <v>697.3589686102956</v>
       </c>
       <c r="J4" t="n">
-        <v>29.24882464404147</v>
+        <v>697.3589686102956</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330559</v>
+        <v>697.3589686102956</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230175</v>
+        <v>709.3965921992918</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170716</v>
+        <v>725.3468614886973</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396334</v>
+        <v>748.7753949309536</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828987</v>
+        <v>750.1023486652801</v>
       </c>
       <c r="P4" t="n">
-        <v>49.45491281910415</v>
+        <v>750.1023486652801</v>
       </c>
       <c r="Q4" t="n">
-        <v>49.45491281910415</v>
+        <v>750.1023486652801</v>
       </c>
       <c r="R4" t="n">
-        <v>49.45491281910415</v>
+        <v>750.1023486652801</v>
       </c>
       <c r="S4" t="n">
-        <v>49.45491281910415</v>
+        <v>750.1023486652801</v>
       </c>
       <c r="T4" t="n">
-        <v>49.45491281910415</v>
+        <v>750.1023486652801</v>
       </c>
       <c r="U4" t="n">
-        <v>49.45491281910415</v>
+        <v>750.1023486652801</v>
       </c>
       <c r="V4" t="n">
-        <v>49.45491281910415</v>
+        <v>750.1023486652801</v>
       </c>
       <c r="W4" t="n">
-        <v>49.45491281910415</v>
+        <v>750.1023486652801</v>
       </c>
       <c r="X4" t="n">
-        <v>49.45491281910415</v>
+        <v>750.1023486652801</v>
       </c>
       <c r="Y4" t="n">
-        <v>49.45491281910415</v>
+        <v>750.1023486652801</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>949.3392845809428</v>
+        <v>1213.529217337157</v>
       </c>
       <c r="C5" t="n">
-        <v>949.3392845809428</v>
+        <v>844.5667003967453</v>
       </c>
       <c r="D5" t="n">
-        <v>949.3392845809428</v>
+        <v>844.5667003967453</v>
       </c>
       <c r="E5" t="n">
-        <v>949.3392845809428</v>
+        <v>844.5667003967453</v>
       </c>
       <c r="F5" t="n">
-        <v>538.3533797913353</v>
+        <v>433.5807956071378</v>
       </c>
       <c r="G5" t="n">
-        <v>122.3223344947426</v>
+        <v>345.9017493182461</v>
       </c>
       <c r="H5" t="n">
-        <v>122.3223344947426</v>
+        <v>34.55805631675778</v>
       </c>
       <c r="I5" t="n">
-        <v>43.36919653809306</v>
+        <v>34.55805631675778</v>
       </c>
       <c r="J5" t="n">
-        <v>152.5078184301901</v>
+        <v>111.6705539017223</v>
       </c>
       <c r="K5" t="n">
-        <v>366.8168396232727</v>
+        <v>277.9807166746988</v>
       </c>
       <c r="L5" t="n">
-        <v>669.5878927711874</v>
+        <v>521.2049416030779</v>
       </c>
       <c r="M5" t="n">
-        <v>1038.14846457873</v>
+        <v>823.5081935709203</v>
       </c>
       <c r="N5" t="n">
-        <v>1417.286540135167</v>
+        <v>1135.316836582755</v>
       </c>
       <c r="O5" t="n">
-        <v>1761.960612545596</v>
+        <v>1416.413635079243</v>
       </c>
       <c r="P5" t="n">
-        <v>2021.630958172447</v>
+        <v>1621.822248332762</v>
       </c>
       <c r="Q5" t="n">
-        <v>2168.459826904653</v>
+        <v>1727.902815837889</v>
       </c>
       <c r="R5" t="n">
-        <v>2168.459826904653</v>
+        <v>1727.902815837889</v>
       </c>
       <c r="S5" t="n">
-        <v>2036.325171642784</v>
+        <v>1586.994975598237</v>
       </c>
       <c r="T5" t="n">
-        <v>2036.325171642784</v>
+        <v>1586.994975598237</v>
       </c>
       <c r="U5" t="n">
-        <v>2036.325171642784</v>
+        <v>1586.994975598237</v>
       </c>
       <c r="V5" t="n">
-        <v>2036.325171642784</v>
+        <v>1586.994975598237</v>
       </c>
       <c r="W5" t="n">
-        <v>1726.078456620876</v>
+        <v>1586.994975598237</v>
       </c>
       <c r="X5" t="n">
-        <v>1726.078456620876</v>
+        <v>1213.529217337157</v>
       </c>
       <c r="Y5" t="n">
-        <v>1335.939124645065</v>
+        <v>1213.529217337157</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>614.2766238550057</v>
+        <v>658.3862120846283</v>
       </c>
       <c r="C6" t="n">
-        <v>483.6625570036928</v>
+        <v>483.9331828035013</v>
       </c>
       <c r="D6" t="n">
-        <v>334.7281473424415</v>
+        <v>334.99877314225</v>
       </c>
       <c r="E6" t="n">
-        <v>175.490692336986</v>
+        <v>175.7613181367945</v>
       </c>
       <c r="F6" t="n">
-        <v>175.490692336986</v>
+        <v>175.7613181367945</v>
       </c>
       <c r="G6" t="n">
-        <v>175.490692336986</v>
+        <v>175.7613181367945</v>
       </c>
       <c r="H6" t="n">
-        <v>80.03532540581918</v>
+        <v>78.31649151814673</v>
       </c>
       <c r="I6" t="n">
-        <v>43.36919653809306</v>
+        <v>34.55805631675778</v>
       </c>
       <c r="J6" t="n">
-        <v>89.55356510562314</v>
+        <v>61.66788464787564</v>
       </c>
       <c r="K6" t="n">
-        <v>246.6448318504519</v>
+        <v>186.157723980607</v>
       </c>
       <c r="L6" t="n">
-        <v>504.1959674104394</v>
+        <v>399.8722171189991</v>
       </c>
       <c r="M6" t="n">
-        <v>824.1028628789486</v>
+        <v>668.6238185223519</v>
       </c>
       <c r="N6" t="n">
-        <v>1166.88538687358</v>
+        <v>958.8971200352505</v>
       </c>
       <c r="O6" t="n">
-        <v>1458.244633128146</v>
+        <v>1202.220686228322</v>
       </c>
       <c r="P6" t="n">
-        <v>1672.753048689046</v>
+        <v>1378.176233639512</v>
       </c>
       <c r="Q6" t="n">
-        <v>1766.227047333486</v>
+        <v>1445.878660906553</v>
       </c>
       <c r="R6" t="n">
-        <v>1734.238298972664</v>
+        <v>1401.100270703778</v>
       </c>
       <c r="S6" t="n">
-        <v>1734.238298972664</v>
+        <v>1258.309378699373</v>
       </c>
       <c r="T6" t="n">
-        <v>1539.52797744664</v>
+        <v>1062.768760419128</v>
       </c>
       <c r="U6" t="n">
-        <v>1311.426387579904</v>
+        <v>1062.768760419128</v>
       </c>
       <c r="V6" t="n">
-        <v>1076.274279348161</v>
+        <v>827.6166521873852</v>
       </c>
       <c r="W6" t="n">
-        <v>822.0369226199596</v>
+        <v>827.6166521873852</v>
       </c>
       <c r="X6" t="n">
-        <v>822.0369226199596</v>
+        <v>827.6166521873852</v>
       </c>
       <c r="Y6" t="n">
-        <v>614.2766238550057</v>
+        <v>826.6015491046962</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>160.3123794255168</v>
+        <v>34.55805631675778</v>
       </c>
       <c r="C7" t="n">
-        <v>160.3123794255168</v>
+        <v>34.55805631675778</v>
       </c>
       <c r="D7" t="n">
-        <v>61.70688273934483</v>
+        <v>34.55805631675778</v>
       </c>
       <c r="E7" t="n">
-        <v>61.70688273934483</v>
+        <v>34.55805631675778</v>
       </c>
       <c r="F7" t="n">
-        <v>61.70688273934483</v>
+        <v>34.55805631675778</v>
       </c>
       <c r="G7" t="n">
-        <v>61.70688273934483</v>
+        <v>34.55805631675778</v>
       </c>
       <c r="H7" t="n">
-        <v>61.70688273934483</v>
+        <v>34.55805631675778</v>
       </c>
       <c r="I7" t="n">
-        <v>61.70688273934483</v>
+        <v>34.55805631675778</v>
       </c>
       <c r="J7" t="n">
-        <v>43.36919653809306</v>
+        <v>34.55805631675778</v>
       </c>
       <c r="K7" t="n">
-        <v>92.71685897981519</v>
+        <v>64.24066662574722</v>
       </c>
       <c r="L7" t="n">
-        <v>185.7706748018941</v>
+        <v>132.1299861584121</v>
       </c>
       <c r="M7" t="n">
-        <v>287.1411594927331</v>
+        <v>206.9680378347981</v>
       </c>
       <c r="N7" t="n">
-        <v>393.9588065377459</v>
+        <v>287.8841338195379</v>
       </c>
       <c r="O7" t="n">
-        <v>472.3091036033657</v>
+        <v>342.3101561934732</v>
       </c>
       <c r="P7" t="n">
-        <v>520.289347040599</v>
+        <v>369.8190495858021</v>
       </c>
       <c r="Q7" t="n">
-        <v>497.4664265514519</v>
+        <v>369.8190495858021</v>
       </c>
       <c r="R7" t="n">
-        <v>388.3019303235342</v>
+        <v>369.8190495858021</v>
       </c>
       <c r="S7" t="n">
-        <v>388.3019303235342</v>
+        <v>369.8190495858021</v>
       </c>
       <c r="T7" t="n">
-        <v>388.3019303235342</v>
+        <v>255.3506354602879</v>
       </c>
       <c r="U7" t="n">
-        <v>388.3019303235342</v>
+        <v>255.3506354602879</v>
       </c>
       <c r="V7" t="n">
-        <v>388.3019303235342</v>
+        <v>255.3506354602879</v>
       </c>
       <c r="W7" t="n">
-        <v>388.3019303235342</v>
+        <v>255.3506354602879</v>
       </c>
       <c r="X7" t="n">
-        <v>160.3123794255168</v>
+        <v>255.3506354602879</v>
       </c>
       <c r="Y7" t="n">
-        <v>160.3123794255168</v>
+        <v>34.55805631675778</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2000.039565752375</v>
+        <v>1018.254896603644</v>
       </c>
       <c r="C8" t="n">
-        <v>1631.077048811964</v>
+        <v>649.2923796632319</v>
       </c>
       <c r="D8" t="n">
-        <v>1631.077048811964</v>
+        <v>649.2923796632319</v>
       </c>
       <c r="E8" t="n">
-        <v>1245.288796213719</v>
+        <v>263.5041270649877</v>
       </c>
       <c r="F8" t="n">
-        <v>834.3028914241117</v>
+        <v>55.3598377942818</v>
       </c>
       <c r="G8" t="n">
-        <v>418.7182695313767</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="H8" t="n">
-        <v>115.8893903310997</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="I8" t="n">
-        <v>54.14699065166918</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="J8" t="n">
-        <v>200.4212373122971</v>
+        <v>152.5078184301905</v>
       </c>
       <c r="K8" t="n">
-        <v>470.3869336157632</v>
+        <v>366.8168396232726</v>
       </c>
       <c r="L8" t="n">
-        <v>842.2050137379765</v>
+        <v>669.587892771188</v>
       </c>
       <c r="M8" t="n">
-        <v>1287.593706992224</v>
+        <v>1038.148464578731</v>
       </c>
       <c r="N8" t="n">
-        <v>1744.803063321702</v>
+        <v>1417.286540135169</v>
       </c>
       <c r="O8" t="n">
-        <v>2163.197632325233</v>
+        <v>1761.960612545599</v>
       </c>
       <c r="P8" t="n">
-        <v>2485.786716210328</v>
+        <v>2021.63095817245</v>
       </c>
       <c r="Q8" t="n">
-        <v>2679.864937059328</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="R8" t="n">
-        <v>2707.349532583459</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="S8" t="n">
-        <v>2707.349532583459</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="T8" t="n">
-        <v>2499.12975318576</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="U8" t="n">
-        <v>2499.12975318576</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="V8" t="n">
-        <v>2499.12975318576</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="W8" t="n">
-        <v>2499.12975318576</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="X8" t="n">
-        <v>2386.639405816497</v>
+        <v>1794.994068643577</v>
       </c>
       <c r="Y8" t="n">
-        <v>2386.639405816497</v>
+        <v>1404.854736667765</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>920.4082714175961</v>
+        <v>693.01044638299</v>
       </c>
       <c r="C9" t="n">
-        <v>745.9552421364691</v>
+        <v>518.5574171018631</v>
       </c>
       <c r="D9" t="n">
-        <v>597.0208324752178</v>
+        <v>369.6230074406118</v>
       </c>
       <c r="E9" t="n">
-        <v>437.7833774697623</v>
+        <v>210.3855524351563</v>
       </c>
       <c r="F9" t="n">
-        <v>291.2488194966473</v>
+        <v>63.85099446204126</v>
       </c>
       <c r="G9" t="n">
-        <v>175.7378005654243</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="H9" t="n">
-        <v>82.5892949871299</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="I9" t="n">
-        <v>54.14699065166918</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="J9" t="n">
-        <v>122.4490829268379</v>
+        <v>89.55356510562342</v>
       </c>
       <c r="K9" t="n">
-        <v>317.3430623472217</v>
+        <v>246.6448318504524</v>
       </c>
       <c r="L9" t="n">
-        <v>625.7246102439926</v>
+        <v>504.1959674104403</v>
       </c>
       <c r="M9" t="n">
-        <v>1004.948199393867</v>
+        <v>824.1028628789501</v>
       </c>
       <c r="N9" t="n">
-        <v>1408.617353449278</v>
+        <v>1166.885386873582</v>
       </c>
       <c r="O9" t="n">
-        <v>1755.67597104075</v>
+        <v>1458.244633128148</v>
       </c>
       <c r="P9" t="n">
-        <v>2014.888042642835</v>
+        <v>1672.753048689049</v>
       </c>
       <c r="Q9" t="n">
-        <v>2138.24525148119</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="R9" t="n">
-        <v>2121.086625423392</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="S9" t="n">
-        <v>1986.558639688696</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="T9" t="n">
-        <v>1986.558639688696</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="U9" t="n">
-        <v>1758.472764136352</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="V9" t="n">
-        <v>1758.472764136352</v>
+        <v>1531.074939101746</v>
       </c>
       <c r="W9" t="n">
-        <v>1504.235407408151</v>
+        <v>1276.837582373545</v>
       </c>
       <c r="X9" t="n">
-        <v>1296.383907202618</v>
+        <v>1068.986082168012</v>
       </c>
       <c r="Y9" t="n">
-        <v>1088.623608437664</v>
+        <v>861.2257834030581</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>330.4942330648878</v>
+        <v>212.3053794660001</v>
       </c>
       <c r="C10" t="n">
-        <v>330.4942330648878</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="D10" t="n">
-        <v>330.4942330648878</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="E10" t="n">
-        <v>330.4942330648878</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="F10" t="n">
-        <v>330.4942330648878</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="G10" t="n">
-        <v>162.5616538302021</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="H10" t="n">
-        <v>162.5616538302021</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="I10" t="n">
-        <v>58.32698981299747</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="J10" t="n">
-        <v>54.14699065166918</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="K10" t="n">
-        <v>126.2970999349568</v>
+        <v>92.71685897981547</v>
       </c>
       <c r="L10" t="n">
-        <v>248.5301971065632</v>
+        <v>185.7706748018946</v>
       </c>
       <c r="M10" t="n">
-        <v>380.6661427433423</v>
+        <v>287.1411594927338</v>
       </c>
       <c r="N10" t="n">
-        <v>517.5177168371871</v>
+        <v>393.9588065377469</v>
       </c>
       <c r="O10" t="n">
-        <v>623.609206664361</v>
+        <v>472.309103603367</v>
       </c>
       <c r="P10" t="n">
-        <v>695.3268329482441</v>
+        <v>520.2893470406003</v>
       </c>
       <c r="Q10" t="n">
-        <v>689.2721335372423</v>
+        <v>520.2893470406003</v>
       </c>
       <c r="R10" t="n">
-        <v>589.1116131482678</v>
+        <v>520.2893470406003</v>
       </c>
       <c r="S10" t="n">
-        <v>589.1116131482678</v>
+        <v>520.2893470406003</v>
       </c>
       <c r="T10" t="n">
-        <v>589.1116131482678</v>
+        <v>520.2893470406003</v>
       </c>
       <c r="U10" t="n">
-        <v>589.1116131482678</v>
+        <v>520.2893470406003</v>
       </c>
       <c r="V10" t="n">
-        <v>334.4271249423809</v>
+        <v>520.2893470406003</v>
       </c>
       <c r="W10" t="n">
-        <v>334.4271249423809</v>
+        <v>520.2893470406003</v>
       </c>
       <c r="X10" t="n">
-        <v>334.4271249423809</v>
+        <v>520.2893470406003</v>
       </c>
       <c r="Y10" t="n">
-        <v>334.4271249423809</v>
+        <v>393.9538442962398</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1590.514489367197</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C11" t="n">
-        <v>1221.551972426786</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D11" t="n">
-        <v>863.2862738200353</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E11" t="n">
-        <v>477.498021221791</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F11" t="n">
-        <v>66.51211643218345</v>
+        <v>793.7736536168588</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218345</v>
+        <v>379.8308874362663</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218345</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218345</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939509</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.58875505237</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609172</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609172</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T11" t="n">
-        <v>3119.628073993395</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U11" t="n">
-        <v>2866.097597267231</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V11" t="n">
-        <v>2535.03470992366</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>2367.253661407131</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X11" t="n">
-        <v>2367.253661407131</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y11" t="n">
-        <v>1977.114329431319</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811091</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999821</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387309</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332754</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601604</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927784</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064586</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218345</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228005</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031477</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1373.553594266882</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125857</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619337</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297193</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199866</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471664</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>944.7237329438971</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C13" t="n">
-        <v>775.7875500159902</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D13" t="n">
-        <v>625.6709106036544</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E13" t="n">
-        <v>477.7578170212613</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212613</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218345</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J13" t="n">
-        <v>111.634748879119</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279955</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764916</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760407</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581906</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>1617.076751502319</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>1849.684251935978</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088493</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.464090846021</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>1645.778206672848</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>1645.778206672848</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U13" t="n">
-        <v>1645.778206672848</v>
+        <v>1964.291482935239</v>
       </c>
       <c r="V13" t="n">
-        <v>1645.778206672848</v>
+        <v>1709.606994729352</v>
       </c>
       <c r="W13" t="n">
-        <v>1575.154327815684</v>
+        <v>1420.189824692392</v>
       </c>
       <c r="X13" t="n">
-        <v>1347.164776917667</v>
+        <v>1192.200273794374</v>
       </c>
       <c r="Y13" t="n">
-        <v>1126.372197774137</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2266.424947555044</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1897.462430614632</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1539.196732007882</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1153.408479409638</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.22209597083</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.2389888872365</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608053</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322608053</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251939</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128758</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.45766301865</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.462224957689</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874795</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333933</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021281</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.497374127288</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4555.113898070875</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4353.904749750193</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4100.461420469743</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3769.398533126172</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3416.629877856058</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3043.164119594978</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2653.024787619166</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>942.6241165038822</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C15" t="n">
-        <v>768.1710872227552</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D15" t="n">
-        <v>619.2366775615039</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>459.9992225560484</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
-        <v>313.4646645829333</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G15" t="n">
-        <v>177.6844143428629</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>92.81162322608053</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608053</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J15" t="n">
-        <v>240.4596049779265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>240.4596049779265</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>240.4596049779265</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>733.6583989593869</v>
+        <v>1373.553594266882</v>
       </c>
       <c r="N15" t="n">
-        <v>1355.754362358723</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1902.630837358917</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2322.214355784993</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2552.77562977024</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
-        <v>2552.77562977024</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S15" t="n">
-        <v>2434.163925027597</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T15" t="n">
-        <v>2243.870218930011</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U15" t="n">
-        <v>2015.840717454381</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V15" t="n">
-        <v>1780.688609222638</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W15" t="n">
-        <v>1526.451252494437</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X15" t="n">
-        <v>1318.599752288904</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y15" t="n">
-        <v>1110.83945352395</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>896.5000339958431</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>896.5000339958431</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>779.3324616937879</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E16" t="n">
-        <v>631.4193681113948</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>484.5294206134844</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.3152257880633</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>175.4425088264937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>92.81162322608053</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156344</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861981</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>819.1842911693323</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
-        <v>1238.413883213791</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1653.109749005498</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2020.132206020528</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2310.662640856733</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2428.375774410168</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2360.516429368669</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2177.346239107599</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1957.667456821981</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1668.591243136708</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1413.906754930821</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1124.48958489386</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>896.5000339958431</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>896.5000339958431</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.224468905844</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.261951965432</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1589.996253358682</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.208000760437</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.22209597083</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.2389888872365</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>92.81162322608057</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>92.81162322608057</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>372.3074987251935</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>841.9378825128756</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1461.45766301865</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2182.462224957689</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2919.747202874795</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3602.609239333935</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4150.915188021283</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4514.497374127291</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4640.581161304029</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4605.913419421674</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4404.704271100993</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.260941820542</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.198054476972</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.429399206857</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3093.963640945778</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2703.824308969966</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>942.6241165038822</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>768.1710872227552</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>619.2366775615039</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>459.9992225560485</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>313.4646645829334</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>177.684414342863</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>92.81162322608057</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>92.81162322608057</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J18" t="n">
-        <v>240.4596049779266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>570.9683475412855</v>
+        <v>280.8495004245714</v>
       </c>
       <c r="L18" t="n">
-        <v>1061.700680385037</v>
+        <v>776.17510664033</v>
       </c>
       <c r="M18" t="n">
-        <v>1653.719034637165</v>
+        <v>1373.553594266882</v>
       </c>
       <c r="N18" t="n">
-        <v>2275.814998036501</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2552.77562977024</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2552.77562977024</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2552.77562977024</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
-        <v>2552.77562977024</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>2434.163925027597</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>2243.870218930011</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>2015.840717454381</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>1780.688609222638</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>1526.451252494437</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>1318.599752288904</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>1110.83945352395</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>873.8816814720478</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C19" t="n">
-        <v>704.9454985441409</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D19" t="n">
-        <v>554.8288591318052</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>406.9157655494121</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>260.0258180515017</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G19" t="n">
-        <v>92.81162322608057</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>92.81162322608057</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>92.81162322608057</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>171.7937461156345</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>431.4224730861983</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>819.1842911693327</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
-        <v>1238.413883213792</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1653.109749005499</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2020.132206020529</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2310.662640856733</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2428.375774410168</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2360.516429368669</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2177.3462391076</v>
+        <v>2390.881471216017</v>
       </c>
       <c r="T19" t="n">
-        <v>1957.667456821982</v>
+        <v>2171.280006238959</v>
       </c>
       <c r="U19" t="n">
-        <v>1957.667456821982</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V19" t="n">
-        <v>1793.729446380795</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W19" t="n">
-        <v>1504.312276343835</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X19" t="n">
-        <v>1276.322725445817</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y19" t="n">
-        <v>1055.530146302287</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.224468905844</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.261951965432</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1589.996253358682</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.208000760437</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F20" t="n">
-        <v>793.22209597083</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G20" t="n">
-        <v>379.2389888872365</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>92.81162322608057</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>92.81162322608043</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>372.3074987251935</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>841.9378825128756</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1461.45766301865</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2182.462224957689</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2919.747202874795</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3602.609239333934</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4150.915188021283</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4514.497374127291</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
-        <v>4640.581161304029</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4605.913419421674</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4404.704271100993</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.260941820542</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.198054476972</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.429399206857</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3093.963640945778</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2703.824308969966</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>942.6241165038822</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C21" t="n">
-        <v>768.1710872227552</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D21" t="n">
-        <v>619.2366775615039</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>459.9992225560485</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>313.4646645829334</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>177.684414342863</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>92.81162322608057</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>92.81162322608057</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>240.4596049779266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>240.4596049779266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>372.2013186925054</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>964.2196729446332</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1586.31563634397</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2133.192111344164</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2552.77562977024</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2552.77562977024</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
-        <v>2552.77562977024</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S21" t="n">
-        <v>2434.163925027597</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T21" t="n">
-        <v>2243.870218930011</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U21" t="n">
-        <v>2015.840717454381</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V21" t="n">
-        <v>1780.688609222638</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W21" t="n">
-        <v>1526.451252494437</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X21" t="n">
-        <v>1318.599752288904</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y21" t="n">
-        <v>1110.83945352395</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2774.123721957434</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C22" t="n">
-        <v>2605.187539029527</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D22" t="n">
-        <v>2455.070899617191</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E22" t="n">
-        <v>2307.157806034798</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F22" t="n">
-        <v>2305.017010119941</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
-        <v>2305.017010119941</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>2305.017010119941</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>2305.017010119941</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>2383.999133009495</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2643.627859980059</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3031.389678063194</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3450.619270107653</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3865.31513589936</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4232.337592914389</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4522.868027750594</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4640.581161304029</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4640.581161304029</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4457.410971042959</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4237.732188757342</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>3948.655975072068</v>
+        <v>1734.499440703994</v>
       </c>
       <c r="V22" t="n">
-        <v>3693.971486866182</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="W22" t="n">
-        <v>3404.554316829221</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="X22" t="n">
-        <v>3176.564765931204</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y22" t="n">
-        <v>2955.772186787673</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6010,31 +6010,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6062,28 +6062,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>800.5007694647277</v>
+        <v>513.8536007400667</v>
       </c>
       <c r="C25" t="n">
-        <v>631.5645865368208</v>
+        <v>344.9174178121598</v>
       </c>
       <c r="D25" t="n">
-        <v>481.447947124485</v>
+        <v>344.9174178121598</v>
       </c>
       <c r="E25" t="n">
-        <v>333.5348535420919</v>
+        <v>344.9174178121598</v>
       </c>
       <c r="F25" t="n">
-        <v>333.5348535420919</v>
+        <v>344.9174178121598</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270397</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.052681478291</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038296</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797697</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910804</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T25" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U25" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V25" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W25" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X25" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138365</v>
       </c>
       <c r="Y25" t="n">
-        <v>982.1492342949674</v>
+        <v>695.5020655703064</v>
       </c>
     </row>
     <row r="26">
@@ -6220,16 +6220,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6247,7 +6247,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6299,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2757.723669558405</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C28" t="n">
-        <v>2588.787486630498</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D28" t="n">
-        <v>2438.670847218162</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E28" t="n">
-        <v>2337.686731866304</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F28" t="n">
-        <v>2337.686731866304</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>2337.686731866304</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.9326143059</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328841</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U28" t="n">
-        <v>3932.255922673039</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V28" t="n">
-        <v>3677.571434467152</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W28" t="n">
-        <v>3388.154264430192</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X28" t="n">
-        <v>3160.164713532175</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y28" t="n">
-        <v>2939.372134388645</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="29">
@@ -6460,13 +6460,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263527</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6648,25 +6648,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2446.96308358026</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>2273.199413378161</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>2018.514925172274</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="W31" t="n">
-        <v>1729.097755135313</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.108204237296</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="32">
@@ -6697,13 +6697,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6776,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6840,19 +6840,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>323.8164599824514</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>175.9033664000583</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>175.9033664000583</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6919,28 +6919,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7013,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603201</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.286391947399</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1938.286391947399</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135313</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7156,37 +7156,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7195,7 +7195,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7250,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>444.7013164925216</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E40" t="n">
-        <v>296.7882229101285</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F40" t="n">
-        <v>296.7882229101285</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7393,16 +7393,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7411,19 +7411,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7493,25 +7493,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>842.6091804069456</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1470.207143961552</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2022.116874200839</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>916.3099000622261</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>747.3737171343192</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>597.2570777219835</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>449.3439841395904</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>449.3439841395904</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>282.1478848544703</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7596,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7630,28 +7630,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>391.8463960427007</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>241.729756630365</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2426.846358063199</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2243.991523718104</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23272,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23320,10 +23320,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>183.1377306860492</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23427,13 +23427,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23466,19 +23466,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>92.12028678808278</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>216.6053582679992</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23506,7 +23506,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>50.29152613729178</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23554,7 +23554,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>32.61957643917772</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>50.29152613728846</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.4539897919539</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.804576744409</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>125.505489761044</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1854515484204</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>89.83901298705371</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23983,7 +23983,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>50.29152613728846</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24138,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>143.3016600672234</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5420528771669</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.804576744409</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>67.18075159108353</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,13 +24183,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>45.65245098079498</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24369,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>68.4978425493139</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.2291039219467</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24609,16 +24609,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>46.45968844822997</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>250.2980548978887</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,19 +24888,19 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>144.8013425629421</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>127.7255247667966</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25317,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,10 +25371,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>79.42624789262624</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>104.8770068749577</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25791,10 +25791,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>35.11263957635599</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,10 +25836,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26028,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.45968844823106</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>764832.2728963214</v>
+        <v>902499.9148193023</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>897586.4039621298</v>
+        <v>902499.9148193023</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>897586.4039621298</v>
+        <v>902499.9148193023</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>897586.40396213</v>
+        <v>902499.9148193025</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>902499.9148193025</v>
+        <v>902499.9148193023</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>902499.9148193024</v>
+        <v>902499.9148193025</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>902499.9148193025</v>
+        <v>902499.9148193024</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>902499.9148193025</v>
+        <v>902499.9148193024</v>
       </c>
     </row>
     <row r="16">
@@ -26316,43 +26316,43 @@
         <v>533677.1504117842</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117844</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117841</v>
+        <v>533677.1504117844</v>
       </c>
       <c r="E2" t="n">
-        <v>443296.228662197</v>
+        <v>524645.2897985036</v>
       </c>
       <c r="F2" t="n">
-        <v>521741.85156472</v>
+        <v>524645.2897985037</v>
       </c>
       <c r="G2" t="n">
-        <v>521741.8515647202</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="H2" t="n">
-        <v>521741.8515647202</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="I2" t="n">
+        <v>524645.2897985039</v>
+      </c>
+      <c r="J2" t="n">
+        <v>524645.2897985037</v>
+      </c>
+      <c r="K2" t="n">
+        <v>524645.289798504</v>
+      </c>
+      <c r="L2" t="n">
         <v>524645.2897985041</v>
       </c>
-      <c r="J2" t="n">
-        <v>524645.289798504</v>
-      </c>
-      <c r="K2" t="n">
-        <v>524645.2897985039</v>
-      </c>
-      <c r="L2" t="n">
-        <v>524645.289798504</v>
-      </c>
       <c r="M2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985041</v>
       </c>
       <c r="N2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="O2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.289798504</v>
       </c>
       <c r="P2" t="n">
         <v>524645.289798504</v>
@@ -26365,46 +26365,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>591356.9025208456</v>
       </c>
       <c r="C3" t="n">
-        <v>392510.2442861775</v>
+        <v>270592.3620253134</v>
       </c>
       <c r="D3" t="n">
-        <v>136000.7074085166</v>
+        <v>115410.0540231927</v>
       </c>
       <c r="E3" t="n">
-        <v>147481.6015574836</v>
+        <v>601443.2075742639</v>
       </c>
       <c r="F3" t="n">
-        <v>306241.8686975054</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>5.405192951002392e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>10818.91345744813</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854459</v>
+        <v>49064.94472854465</v>
       </c>
       <c r="K3" t="n">
-        <v>91259.95686487776</v>
+        <v>62913.63765882009</v>
       </c>
       <c r="L3" t="n">
-        <v>34097.03362498867</v>
+        <v>27875.25362197486</v>
       </c>
       <c r="M3" t="n">
-        <v>38517.98506259098</v>
+        <v>157146.3805515976</v>
       </c>
       <c r="N3" t="n">
-        <v>80518.24125636034</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.641531071072677e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278536.5648341299</v>
+        <v>278536.5648341298</v>
       </c>
       <c r="C4" t="n">
-        <v>174202.9900888977</v>
+        <v>206604.4229263459</v>
       </c>
       <c r="D4" t="n">
-        <v>136660.5945769991</v>
+        <v>174202.9900888974</v>
       </c>
       <c r="E4" t="n">
-        <v>15259.89878720224</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="F4" t="n">
-        <v>15430.10738565431</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="G4" t="n">
-        <v>15430.10738565431</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="H4" t="n">
-        <v>15430.10738565431</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="I4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="J4" t="n">
         <v>15436.64000687967</v>
@@ -26469,25 +26469,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161357</v>
+        <v>56985.80041161359</v>
       </c>
       <c r="C5" t="n">
-        <v>85199.08185587224</v>
+        <v>76435.73471936827</v>
       </c>
       <c r="D5" t="n">
-        <v>95786.83947032604</v>
+        <v>85199.08185587233</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139333</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>100142.1285138384</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
-        <v>100142.1285138385</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
-        <v>100142.1285138385</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="I5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-393202.1173548046</v>
+        <v>-393202.1173548049</v>
       </c>
       <c r="C6" t="n">
-        <v>-118235.1658191631</v>
+        <v>-19955.36925924315</v>
       </c>
       <c r="D6" t="n">
-        <v>165229.0089559424</v>
+        <v>158865.024443822</v>
       </c>
       <c r="E6" t="n">
-        <v>206248.3877561178</v>
+        <v>-193704.466860904</v>
       </c>
       <c r="F6" t="n">
-        <v>99927.74696772182</v>
+        <v>407738.74071336</v>
       </c>
       <c r="G6" t="n">
-        <v>406169.6156652269</v>
+        <v>407738.7407133601</v>
       </c>
       <c r="H6" t="n">
-        <v>406169.6156652275</v>
+        <v>407738.74071336</v>
       </c>
       <c r="I6" t="n">
-        <v>397267.2065102691</v>
+        <v>407738.7407133601</v>
       </c>
       <c r="J6" t="n">
-        <v>359021.1752391726</v>
+        <v>358673.7959848153</v>
       </c>
       <c r="K6" t="n">
-        <v>316826.1631028393</v>
+        <v>344825.1030545401</v>
       </c>
       <c r="L6" t="n">
-        <v>373989.0863427285</v>
+        <v>379863.4870913855</v>
       </c>
       <c r="M6" t="n">
-        <v>369568.1349051262</v>
+        <v>250592.3601617627</v>
       </c>
       <c r="N6" t="n">
-        <v>327567.8787113568</v>
+        <v>407738.7407133602</v>
       </c>
       <c r="O6" t="n">
-        <v>408086.1199677172</v>
+        <v>407738.7407133602</v>
       </c>
       <c r="P6" t="n">
-        <v>408086.1199677172</v>
+        <v>407738.7407133602</v>
       </c>
     </row>
   </sheetData>
@@ -26737,25 +26737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>853.710664537684</v>
+        <v>758.8996292950626</v>
       </c>
       <c r="D3" t="n">
-        <v>963.6480080301593</v>
+        <v>853.7106645376849</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593299</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1358.041048716386</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
-        <v>1358.041048716386</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="H3" t="n">
-        <v>1358.041048716386</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="I3" t="n">
         <v>1367.975500341674</v>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>542.1149567261632</v>
+        <v>431.9757039594722</v>
       </c>
       <c r="D4" t="n">
-        <v>676.8373831458647</v>
+        <v>542.1149567261642</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022931</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1160.145290326006</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1160.145290326007</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1160.145290326007</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26959,28 +26959,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>305.2407236247794</v>
+        <v>210.4296883821578</v>
       </c>
       <c r="D3" t="n">
-        <v>109.9373434924753</v>
+        <v>94.81103524262232</v>
       </c>
       <c r="E3" t="n">
-        <v>126.1286925631392</v>
+        <v>514.2648358039886</v>
       </c>
       <c r="F3" t="n">
-        <v>268.2643481230871</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>9.934451625287693</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,46 +27011,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>354.5893695598434</v>
+        <v>244.4501167931521</v>
       </c>
       <c r="D4" t="n">
-        <v>134.7224264197015</v>
+        <v>110.1392527666921</v>
       </c>
       <c r="E4" t="n">
-        <v>154.5640722564284</v>
+        <v>630.5933313734837</v>
       </c>
       <c r="F4" t="n">
-        <v>328.7438349237134</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>12.5629977736412</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>354.5893695598434</v>
+        <v>244.4501167931526</v>
       </c>
       <c r="L4" t="n">
-        <v>134.7224264197015</v>
+        <v>110.1392527666921</v>
       </c>
       <c r="M4" t="n">
-        <v>154.5640722564284</v>
+        <v>630.5933313734837</v>
       </c>
       <c r="N4" t="n">
-        <v>328.7438349237134</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>354.5893695598434</v>
+        <v>244.4501167931521</v>
       </c>
       <c r="L4" t="n">
-        <v>134.7224264197015</v>
+        <v>110.1392527666921</v>
       </c>
       <c r="M4" t="n">
-        <v>154.5640722564284</v>
+        <v>630.5933313734837</v>
       </c>
       <c r="N4" t="n">
-        <v>328.7438349237134</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27384,22 +27384,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>237.8424494849855</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753916</v>
+        <v>227.9811835596683</v>
       </c>
       <c r="G2" t="n">
-        <v>225.5722460637382</v>
+        <v>225.572246063738</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27466,22 +27466,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>58.90455890409147</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.37922103265835</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27508,19 +27508,19 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U3" t="n">
         <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>67.72406411793844</v>
       </c>
       <c r="W3" t="n">
-        <v>223.9713351084107</v>
+        <v>64.16939599459957</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27548,7 +27548,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>93.20510176849658</v>
       </c>
       <c r="G4" t="n">
         <v>167.0019352027142</v>
@@ -27560,10 +27560,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>37.06597233494212</v>
+        <v>57.06999962825414</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.10430989402848</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,10 +27578,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>18.10760906709382</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159726</v>
+        <v>68.68604055159722</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>325.4496289080466</v>
       </c>
       <c r="H5" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>92.85788772760026</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>23.94240680425884</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>208.0722578696039</v>
+        <v>209.7407415149288</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0710926941158</v>
+        <v>251.1015846853496</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>42.09672084572486</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27694,10 +27694,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>43.40057280551594</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27709,7 +27709,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.5072338470353</v>
+        <v>135.7111670171797</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -27745,25 +27745,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8339906239991</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>204.6777437254423</v>
       </c>
     </row>
     <row r="7">
@@ -27779,7 +27779,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>50.99603129890208</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27788,16 +27788,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.4515011109318</v>
+        <v>166.6224718302218</v>
       </c>
       <c r="H7" t="n">
-        <v>148.5398113612452</v>
+        <v>150.0598964836597</v>
       </c>
       <c r="I7" t="n">
-        <v>109.1541654470835</v>
+        <v>114.2957212599129</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.24193919304037</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,19 +27818,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>36.91115760589139</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>115.7603165166223</v>
       </c>
       <c r="S7" t="n">
-        <v>197.1876907596159</v>
+        <v>200.1672441130602</v>
       </c>
       <c r="T7" t="n">
-        <v>221.3678187343026</v>
+        <v>108.7746000051916</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2350578157167</v>
+        <v>286.2443834913143</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>200.8131993637126</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>78.16360657708287</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>120.7421641270001</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>208.0722578696038</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0357359605303</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27918,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>258.3656567828983</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27946,13 +27946,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>20.91485610214062</v>
+        <v>115.2302539023266</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>94.50081326185511</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>36.29946757904879</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,19 +27979,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>31.66886087721421</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>191.810082285579</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>175.9384172232191</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28025,16 +28025,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H10" t="n">
-        <v>146.7772093623003</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>18.15430933923915</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,22 +28055,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>22.59469128425542</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>108.0728512656385</v>
       </c>
       <c r="S10" t="n">
-        <v>193.7327745714999</v>
+        <v>197.1876907596158</v>
       </c>
       <c r="T10" t="n">
-        <v>220.5207605139508</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2242443065207</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>93.51250563517785</v>
       </c>
     </row>
     <row r="11">
@@ -28563,7 +28563,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28778,7 +28778,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>-3.959144123655279e-12</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -29052,7 +29052,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29219,7 +29219,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>-4.713266813875332e-12</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -31044,46 +31044,46 @@
         <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954485</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043118</v>
+        <v>85.00457245043123</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470275</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470024</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622681</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619225</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924579</v>
+        <v>9.651968507924584</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,13 +31120,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435304</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H3" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590852</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31135,34 +31135,34 @@
         <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975329</v>
+        <v>298.9161177975331</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829654</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q3" t="n">
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550075</v>
+        <v>73.2466083355008</v>
       </c>
       <c r="S3" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820369</v>
+        <v>4.755130902820371</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07761367088390166</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9890441557445823</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620016</v>
+        <v>8.793501675620019</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>29.74325515639163</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114193</v>
+        <v>69.92542181114197</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31223,25 +31223,25 @@
         <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P4" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784858</v>
+        <v>82.81896107784863</v>
       </c>
       <c r="R4" t="n">
-        <v>44.4710217664791</v>
+        <v>44.47102176647912</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181396</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05394786304061364</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.432002671508275</v>
+        <v>3.050852781085676</v>
       </c>
       <c r="H5" t="n">
-        <v>35.14799735958413</v>
+        <v>31.24454604429369</v>
       </c>
       <c r="I5" t="n">
-        <v>132.3122829933229</v>
+        <v>117.6180018428057</v>
       </c>
       <c r="J5" t="n">
-        <v>291.2869367409257</v>
+        <v>258.9373162286707</v>
       </c>
       <c r="K5" t="n">
-        <v>436.5636098258711</v>
+        <v>388.0799144520274</v>
       </c>
       <c r="L5" t="n">
-        <v>541.5957615840425</v>
+        <v>481.4474502511783</v>
       </c>
       <c r="M5" t="n">
-        <v>602.6296390934777</v>
+        <v>535.7030533968107</v>
       </c>
       <c r="N5" t="n">
-        <v>612.3808166839008</v>
+        <v>544.3712888610704</v>
       </c>
       <c r="O5" t="n">
-        <v>578.2538401190903</v>
+        <v>514.0343715191497</v>
       </c>
       <c r="P5" t="n">
-        <v>493.5262741662297</v>
+        <v>438.716443486097</v>
       </c>
       <c r="Q5" t="n">
-        <v>370.6176784928394</v>
+        <v>329.4577782634661</v>
       </c>
       <c r="R5" t="n">
-        <v>215.5855378141319</v>
+        <v>191.6431310098733</v>
       </c>
       <c r="S5" t="n">
-        <v>78.20676087699489</v>
+        <v>69.52130774898993</v>
       </c>
       <c r="T5" t="n">
-        <v>15.02359169452748</v>
+        <v>13.35510804920256</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2745602137206619</v>
+        <v>0.2440682224868541</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.836283316175396</v>
+        <v>1.632350146030889</v>
       </c>
       <c r="H6" t="n">
-        <v>17.73463097464133</v>
+        <v>15.76506588403517</v>
       </c>
       <c r="I6" t="n">
-        <v>63.22291242095114</v>
+        <v>56.20152915062493</v>
       </c>
       <c r="J6" t="n">
-        <v>173.4885040076062</v>
+        <v>154.2212916475938</v>
       </c>
       <c r="K6" t="n">
-        <v>296.5194861913577</v>
+        <v>263.5887514316634</v>
       </c>
       <c r="L6" t="n">
-        <v>398.7070419616797</v>
+        <v>354.4276051721894</v>
       </c>
       <c r="M6" t="n">
-        <v>465.2723121730377</v>
+        <v>413.600297965809</v>
       </c>
       <c r="N6" t="n">
-        <v>477.5866858152842</v>
+        <v>424.5470671468672</v>
       </c>
       <c r="O6" t="n">
-        <v>436.8985133884504</v>
+        <v>388.3776244374458</v>
       </c>
       <c r="P6" t="n">
-        <v>350.6495746475631</v>
+        <v>311.7072835872494</v>
       </c>
       <c r="Q6" t="n">
-        <v>234.3999545349506</v>
+        <v>208.36806425475</v>
       </c>
       <c r="R6" t="n">
-        <v>114.0106430867496</v>
+        <v>101.3488976632161</v>
       </c>
       <c r="S6" t="n">
-        <v>34.10815721053858</v>
+        <v>30.32018801947725</v>
       </c>
       <c r="T6" t="n">
-        <v>7.401510384057842</v>
+        <v>6.579516597378889</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1208081129062761</v>
+        <v>0.1073914569757164</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.539478247526971</v>
+        <v>1.368507528236998</v>
       </c>
       <c r="H7" t="n">
-        <v>13.68736114619435</v>
+        <v>12.16727602377986</v>
       </c>
       <c r="I7" t="n">
-        <v>46.29630948017474</v>
+        <v>41.15475366734537</v>
       </c>
       <c r="J7" t="n">
-        <v>108.8411121001568</v>
+        <v>96.75348224635574</v>
       </c>
       <c r="K7" t="n">
-        <v>178.8593818490426</v>
+        <v>158.9956928260803</v>
       </c>
       <c r="L7" t="n">
-        <v>228.8784296368735</v>
+        <v>203.4597465162533</v>
       </c>
       <c r="M7" t="n">
-        <v>241.3202129282505</v>
+        <v>214.5197755399141</v>
       </c>
       <c r="N7" t="n">
-        <v>235.5821576420138</v>
+        <v>209.4189747528491</v>
       </c>
       <c r="O7" t="n">
-        <v>217.5982526595396</v>
+        <v>193.432318627535</v>
       </c>
       <c r="P7" t="n">
-        <v>186.1928964099892</v>
+        <v>165.5147650515001</v>
       </c>
       <c r="Q7" t="n">
-        <v>128.9103103451903</v>
+        <v>114.5938440235545</v>
       </c>
       <c r="R7" t="n">
-        <v>69.22054011153088</v>
+        <v>61.53307486054718</v>
       </c>
       <c r="S7" t="n">
-        <v>26.82890727735639</v>
+        <v>23.84935392391204</v>
       </c>
       <c r="T7" t="n">
-        <v>6.577770693978874</v>
+        <v>5.847259438830808</v>
       </c>
       <c r="U7" t="n">
-        <v>0.08397154077419852</v>
+        <v>0.07464586517656362</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.873961841327271</v>
+        <v>3.432002671508279</v>
       </c>
       <c r="H8" t="n">
-        <v>39.67421170749292</v>
+        <v>35.14799735958417</v>
       </c>
       <c r="I8" t="n">
-        <v>149.3509138877697</v>
+        <v>132.312282993323</v>
       </c>
       <c r="J8" t="n">
-        <v>328.7976688303507</v>
+        <v>291.286936740926</v>
       </c>
       <c r="K8" t="n">
-        <v>492.7824735737342</v>
+        <v>436.5636098258715</v>
       </c>
       <c r="L8" t="n">
-        <v>611.3402332752538</v>
+        <v>541.5957615840431</v>
       </c>
       <c r="M8" t="n">
-        <v>680.2338021709576</v>
+        <v>602.6296390934784</v>
       </c>
       <c r="N8" t="n">
-        <v>691.2406962526288</v>
+        <v>612.3808166839013</v>
       </c>
       <c r="O8" t="n">
-        <v>652.7189881929307</v>
+        <v>578.2538401190909</v>
       </c>
       <c r="P8" t="n">
-        <v>557.0805552351636</v>
+        <v>493.5262741662302</v>
       </c>
       <c r="Q8" t="n">
-        <v>418.3442967926306</v>
+        <v>370.6176784928398</v>
       </c>
       <c r="R8" t="n">
-        <v>243.3477555152744</v>
+        <v>215.5855378141321</v>
       </c>
       <c r="S8" t="n">
-        <v>88.27790545924528</v>
+        <v>78.20676087699498</v>
       </c>
       <c r="T8" t="n">
-        <v>16.95826796041014</v>
+        <v>15.0235916945275</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3099169473061816</v>
+        <v>0.2745602137206622</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.072752319159211</v>
+        <v>1.836283316175398</v>
       </c>
       <c r="H9" t="n">
-        <v>20.01842371398501</v>
+        <v>17.73463097464134</v>
       </c>
       <c r="I9" t="n">
-        <v>71.36449870789389</v>
+        <v>63.2229124209512</v>
       </c>
       <c r="J9" t="n">
-        <v>195.829639065827</v>
+        <v>173.4885040076064</v>
       </c>
       <c r="K9" t="n">
-        <v>334.7040444494941</v>
+        <v>296.519486191358</v>
       </c>
       <c r="L9" t="n">
-        <v>450.0508928069155</v>
+        <v>398.7070419616801</v>
       </c>
       <c r="M9" t="n">
-        <v>525.1881643764367</v>
+        <v>465.2723121730382</v>
       </c>
       <c r="N9" t="n">
-        <v>539.0883323413248</v>
+        <v>477.5866858152847</v>
       </c>
       <c r="O9" t="n">
-        <v>493.1605046378496</v>
+        <v>436.8985133884509</v>
       </c>
       <c r="P9" t="n">
-        <v>395.8047827699725</v>
+        <v>350.6495746475635</v>
       </c>
       <c r="Q9" t="n">
-        <v>264.5850153368845</v>
+        <v>234.3999545349508</v>
       </c>
       <c r="R9" t="n">
-        <v>128.6924641667447</v>
+        <v>114.0106430867497</v>
       </c>
       <c r="S9" t="n">
-        <v>38.50046522648795</v>
+        <v>34.10815721053861</v>
       </c>
       <c r="T9" t="n">
-        <v>8.354646409242605</v>
+        <v>7.40151038405785</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1363652841552113</v>
+        <v>0.1208081129062762</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.737725916119959</v>
+        <v>1.539478247526973</v>
       </c>
       <c r="H10" t="n">
-        <v>15.44996314513929</v>
+        <v>13.68736114619437</v>
       </c>
       <c r="I10" t="n">
-        <v>52.2581575502257</v>
+        <v>46.29630948017479</v>
       </c>
       <c r="J10" t="n">
-        <v>122.8572222696811</v>
+        <v>108.841112100157</v>
       </c>
       <c r="K10" t="n">
-        <v>201.8921564364825</v>
+        <v>178.8593818490428</v>
       </c>
       <c r="L10" t="n">
-        <v>258.3524512020529</v>
+        <v>228.8784296368738</v>
       </c>
       <c r="M10" t="n">
-        <v>272.3964361059678</v>
+        <v>241.3202129282508</v>
       </c>
       <c r="N10" t="n">
-        <v>265.919457691339</v>
+        <v>235.5821576420141</v>
       </c>
       <c r="O10" t="n">
-        <v>245.6196594893921</v>
+        <v>217.5982526595398</v>
       </c>
       <c r="P10" t="n">
-        <v>210.1700508005448</v>
+        <v>186.1928964099894</v>
       </c>
       <c r="Q10" t="n">
-        <v>145.5108492125541</v>
+        <v>128.9103103451904</v>
       </c>
       <c r="R10" t="n">
-        <v>78.13447619208469</v>
+        <v>69.22054011153095</v>
       </c>
       <c r="S10" t="n">
-        <v>30.28382346547237</v>
+        <v>26.82890727735641</v>
       </c>
       <c r="T10" t="n">
-        <v>7.424828914330733</v>
+        <v>6.577770693978882</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0947850499701797</v>
+        <v>0.08397154077419861</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681599</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>371.832905495399</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003812</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623195</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574996</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095025</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099061</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746415</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781691</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
-        <v>275.198736356357</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806954</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>19.17787942451121</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502567</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798532</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>80.7051613175226</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026439</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353158</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138797</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233476</v>
+        <v>444.22749159829</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837926</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970251</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002928</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905542</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238317</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898499</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>17.4721575931188</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>59.0980545174202</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
-        <v>138.937596729739</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702025</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316433</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883116</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086002</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>237.678511880217</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.5562817895881</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712217</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553037</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112298</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377425</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122282</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874064</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>694.463976083043</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364263</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>958.6336695293307</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229608</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>919.8578442086952</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687524</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148606</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987162</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>124.4074789854257</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>23.89879272665719</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.921069425540905</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.2113810308819</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>275.9770021735818</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>640.3146339032915</v>
+        <v>444.2274915982898</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927637</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426204</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P15" t="n">
-        <v>557.7961431982453</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>372.8719498286952</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.2575834086216</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821092</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.448926481291843</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.77318271548567</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284925</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
-        <v>173.1391022273333</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>284.5207311900886</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640618</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265021</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416874</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465962</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>296.1865264282424</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
-        <v>205.0641983561742</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
-        <v>110.1126397860859</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851328</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
-        <v>10.46359496551969</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.459461502377427</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>55.91171011122284</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>210.475889570406</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>463.3649706874066</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>694.4639760830432</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>861.5439710364266</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>958.6336695293311</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>974.145364522961</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>919.8578442086955</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>785.0773883687526</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>589.5604233148608</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
-        <v>342.9428985987163</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>124.4074789854258</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>23.8987927266572</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4367569201901941</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.921069425540906</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.21138103088191</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>275.9770021735819</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
-        <v>471.6886536848226</v>
+        <v>173.8200325543365</v>
       </c>
       <c r="L18" t="n">
-        <v>634.2436048745726</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>740.1323715504303</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
-        <v>759.721473092764</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>422.3544583169075</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.25758340862161</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.77395965821093</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1921756201013755</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.448926481291843</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.77318271548568</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>73.64589818284928</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
-        <v>173.1391022273333</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>284.5207311900887</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>364.088578864062</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>383.8803574265023</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
-        <v>374.7525405416876</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>346.1446266465964</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>296.1865264282425</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
-        <v>205.0641983561743</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
-        <v>110.1126397860859</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.67810967851329</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
-        <v>10.46359496551969</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.459461502377427</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>55.91171011122284</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>210.475889570406</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>463.3649706874066</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>694.4639760830432</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>861.5439710364266</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>958.6336695293311</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>974.145364522961</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>919.8578442086955</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>785.0773883687526</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>589.5604233148608</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>342.9428985987163</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>124.4074789854258</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>23.8987927266572</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4367569201901941</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.921069425540906</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.21138103088191</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>275.9770021735819</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>271.6268178754083</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>740.1323715504303</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N21" t="n">
-        <v>759.721473092764</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>694.9967242426206</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>557.7961431982455</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.25758340862161</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
-        <v>11.77395965821093</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1921756201013755</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.448926481291843</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.77318271548568</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>73.64589818284928</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>173.1391022273333</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>284.5207311900887</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>364.088578864062</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>383.8803574265023</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>374.7525405416876</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>346.1446266465964</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>296.1865264282425</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>205.0641983561743</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
-        <v>110.1126397860859</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.67810967851329</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
-        <v>10.46359496551969</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32785,16 +32785,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32803,10 +32803,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33034,19 +33034,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33274,10 +33274,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33505,22 +33505,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>279.2419622547062</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33733,13 +33733,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33985,16 +33985,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>232.75998908852</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34213,10 +34213,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34225,16 +34225,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>397.6543049213403</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34462,13 +34462,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>156.3072281639545</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868052</v>
+        <v>6.092590538868137</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788333</v>
+        <v>60.38224240788344</v>
       </c>
       <c r="L2" t="n">
-        <v>112.184017997302</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197546</v>
+        <v>156.8156663197548</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504115</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405812</v>
+        <v>141.4033554405814</v>
       </c>
       <c r="P2" t="n">
-        <v>85.8349965691599</v>
+        <v>85.83499656916001</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065975</v>
+        <v>15.79916774065984</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781469</v>
+        <v>52.65872908781475</v>
       </c>
       <c r="L3" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>175.4858258996322</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848229</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855694</v>
+        <v>91.30185944855702</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764996</v>
+        <v>10.60944440765002</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646077</v>
+        <v>12.15921574646083</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061152</v>
+        <v>16.11138312061158</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520826</v>
+        <v>23.66518529520832</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400524</v>
+        <v>1.340357307400581</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>110.2410322142394</v>
+        <v>77.8914117019844</v>
       </c>
       <c r="K5" t="n">
-        <v>216.4737587808905</v>
+        <v>167.9900634070469</v>
       </c>
       <c r="L5" t="n">
-        <v>305.8293466140553</v>
+        <v>245.681035281191</v>
       </c>
       <c r="M5" t="n">
-        <v>372.283405866205</v>
+        <v>305.356820169538</v>
       </c>
       <c r="N5" t="n">
-        <v>382.9677530873099</v>
+        <v>314.9582252644795</v>
       </c>
       <c r="O5" t="n">
-        <v>348.1556286974036</v>
+        <v>283.9361600974629</v>
       </c>
       <c r="P5" t="n">
-        <v>262.2932784109601</v>
+        <v>207.4834477308274</v>
       </c>
       <c r="Q5" t="n">
-        <v>148.31198861839</v>
+        <v>107.1520883890166</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>46.65087734093947</v>
+        <v>27.38366498092714</v>
       </c>
       <c r="K6" t="n">
-        <v>158.6780472169987</v>
+        <v>125.7473124573044</v>
       </c>
       <c r="L6" t="n">
-        <v>260.1526621818056</v>
+        <v>215.8732253923152</v>
       </c>
       <c r="M6" t="n">
-        <v>323.1382782510194</v>
+        <v>271.4662640437907</v>
       </c>
       <c r="N6" t="n">
-        <v>346.2449737319509</v>
+        <v>293.2053550635338</v>
       </c>
       <c r="O6" t="n">
-        <v>294.302268944006</v>
+        <v>245.7813799930014</v>
       </c>
       <c r="P6" t="n">
-        <v>216.6751672332329</v>
+        <v>177.7328761729192</v>
       </c>
       <c r="Q6" t="n">
-        <v>94.41818044892904</v>
+        <v>68.38629016872852</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>49.84612367850721</v>
+        <v>29.98243465554489</v>
       </c>
       <c r="L7" t="n">
-        <v>93.99375335563525</v>
+        <v>68.57507023501506</v>
       </c>
       <c r="M7" t="n">
-        <v>102.3944289806455</v>
+        <v>75.59399159230907</v>
       </c>
       <c r="N7" t="n">
-        <v>107.8966131767806</v>
+        <v>81.73343028761593</v>
       </c>
       <c r="O7" t="n">
-        <v>79.14171420769679</v>
+        <v>54.97578017569222</v>
       </c>
       <c r="P7" t="n">
-        <v>48.46489236084162</v>
+        <v>27.78676100235251</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>147.7517643036645</v>
+        <v>110.2410322142397</v>
       </c>
       <c r="K8" t="n">
-        <v>272.6926225287536</v>
+        <v>216.473758780891</v>
       </c>
       <c r="L8" t="n">
-        <v>375.5738183052666</v>
+        <v>305.8293466140559</v>
       </c>
       <c r="M8" t="n">
-        <v>449.8875689436849</v>
+        <v>372.2834058662057</v>
       </c>
       <c r="N8" t="n">
-        <v>461.8276326560379</v>
+        <v>382.9677530873104</v>
       </c>
       <c r="O8" t="n">
-        <v>422.620776771244</v>
+        <v>348.1556286974042</v>
       </c>
       <c r="P8" t="n">
-        <v>325.8475594798941</v>
+        <v>262.2932784109607</v>
       </c>
       <c r="Q8" t="n">
-        <v>196.0386069181811</v>
+        <v>148.3119886183904</v>
       </c>
       <c r="R8" t="n">
-        <v>27.76221770114225</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>68.99201239916033</v>
+        <v>46.65087734093967</v>
       </c>
       <c r="K9" t="n">
-        <v>196.8626054751351</v>
+        <v>158.678047216999</v>
       </c>
       <c r="L9" t="n">
-        <v>311.4965130270413</v>
+        <v>260.152662181806</v>
       </c>
       <c r="M9" t="n">
-        <v>383.0541304544184</v>
+        <v>323.1382782510199</v>
       </c>
       <c r="N9" t="n">
-        <v>407.7466202579915</v>
+        <v>346.2449737319514</v>
       </c>
       <c r="O9" t="n">
-        <v>350.5642601934051</v>
+        <v>294.3022689440065</v>
       </c>
       <c r="P9" t="n">
-        <v>261.8303753556422</v>
+        <v>216.6751672332333</v>
       </c>
       <c r="Q9" t="n">
-        <v>124.603241250863</v>
+        <v>94.41818044892929</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>72.8788982659471</v>
+        <v>49.84612367850741</v>
       </c>
       <c r="L10" t="n">
-        <v>123.4677749208146</v>
+        <v>93.99375335563548</v>
       </c>
       <c r="M10" t="n">
-        <v>133.4706521583627</v>
+        <v>102.3944289806457</v>
       </c>
       <c r="N10" t="n">
-        <v>138.2339132261058</v>
+        <v>107.8966131767809</v>
       </c>
       <c r="O10" t="n">
-        <v>107.1631210375494</v>
+        <v>79.14171420769702</v>
       </c>
       <c r="P10" t="n">
-        <v>72.44204675139719</v>
+        <v>48.46489236084182</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687127</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554006</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923323</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302269</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882193</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
-        <v>398.761986219372</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037196</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222484</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597716</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609568</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340056</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013293</v>
+        <v>302.0934576762717</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004593</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525807</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859626</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306625</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701982</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934839</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675402</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451105</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789368</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607201</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380625</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
-        <v>625.777556066439</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>728.287436302058</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
-        <v>744.7323009263698</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870084</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
-        <v>553.8443926134828</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.2547334404111</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
-        <v>127.3573607845841</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J15" t="n">
-        <v>149.1393755069151</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>498.1805999812732</v>
+        <v>302.0934576762715</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094305</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>552.400479798176</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P15" t="n">
-        <v>423.8217357839151</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>232.8901757426737</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066049</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
-        <v>262.2512393642057</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>391.678604124378</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883427</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>418.8847129209161</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>370.7297545606359</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931358</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044798</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>282.3190661607203</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>474.3741250380627</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
-        <v>625.7775560664393</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>728.2874363020584</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
-        <v>744.73230092637</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>689.7596327870087</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
-        <v>553.844392613483</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>367.2547334404113</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
-        <v>127.3573607845842</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J18" t="n">
-        <v>149.1393755069152</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>333.8472147104636</v>
+        <v>35.97859357997754</v>
       </c>
       <c r="L18" t="n">
-        <v>495.6892250946984</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>597.9983376284119</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>628.3797610094307</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>279.758213872463</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>79.77992211066055</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
-        <v>262.2512393642058</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>391.6786041243781</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>423.4642343883428</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>418.8847129209162</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>370.729754560636</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>293.465085693136</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>118.9021551044799</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>282.3190661607203</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>474.3741250380627</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>625.7775560664393</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>728.2874363020584</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>744.73230092637</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>689.7596327870087</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>553.844392613483</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>367.2547334404113</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>127.3573607845842</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,28 +36196,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>149.1393755069152</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>133.0724380955342</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>597.9983376284119</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N21" t="n">
-        <v>628.3797610094307</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>552.4004797981762</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>423.8217357839153</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>79.77992211066055</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>262.2512393642058</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>391.6786041243781</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>423.4642343883428</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>418.8847129209162</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>370.729754560636</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>293.465085693136</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>118.9021551044799</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,10 +36451,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326294864</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36682,19 +36682,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36922,10 +36922,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,22 +37153,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>140.6875824748321</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37633,16 +37633,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>98.78558167418976</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37861,10 +37861,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37873,16 +37873,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>263.67989750701</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38110,13 +38110,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>22.33282074962425</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_24_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_24_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1570900.627719183</v>
+        <v>1572756.781402738</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283203</v>
+        <v>461523.3857480705</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10437581.96848356</v>
+        <v>10421092.01878425</v>
       </c>
     </row>
     <row r="11">
@@ -667,10 +667,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="F2" t="n">
-        <v>178.8948621820432</v>
+        <v>187.52558716632</v>
       </c>
       <c r="G2" t="n">
         <v>187.52558716632</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666373</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>88.09081815943087</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -737,13 +737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846316</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -797,10 +797,10 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>165.0765230314868</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>187.52558716632</v>
+        <v>111.0567566117635</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>52.21594625443468</v>
+        <v>52.21594625443443</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>86.80225582600272</v>
+        <v>293.04386056287</v>
       </c>
       <c r="H5" t="n">
-        <v>308.2302560714734</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>17.70198601719426</v>
       </c>
       <c r="S5" t="n">
-        <v>139.4987618372554</v>
+        <v>137.2349592593359</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>209.3058629286494</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -986,16 +986,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>142.9950174590047</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>96.4703783524613</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.32085084937507</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.33060630074782</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>141.3629830843606</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.5852120974427</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1037,13 +1037,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.004952051862049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>113.3237299842591</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>188.6296464911432</v>
       </c>
     </row>
     <row r="8">
@@ -1138,13 +1138,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>206.0628463779988</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>11.87073484362677</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>200.4727983501274</v>
       </c>
     </row>
     <row r="9">
@@ -1226,7 +1226,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>20.27697994470863</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>31.66886087721419</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1271,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>83.83369232362153</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>31.68046530976962</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>125.0721477169169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1384,10 +1384,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444115</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>298.9494425801223</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1463,10 +1463,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,13 +1499,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T12" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1536,19 +1536,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>133.2029077250807</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>194.0641876011614</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1621,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701337</v>
+        <v>277.4607323328433</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1700,10 +1700,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,13 +1736,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T15" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1767,19 +1767,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>83.06560892428168</v>
+        <v>85.25887760429661</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1858,10 +1858,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>34.32106446353023</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1937,10 +1937,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,13 +1973,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T18" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U18" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2019,10 +2019,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>55.5207962406006</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>33.26025621763377</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892481</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2095,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187852</v>
+        <v>359.5517498754667</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2174,10 +2174,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,13 +2210,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T21" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U21" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2244,19 +2244,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>64.44601915223798</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U22" t="n">
-        <v>240.5320234084492</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2332,10 +2332,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892427719</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>109.8058856274582</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>35.88641949135544</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>282.6522346620509</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2797,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2848,7 +2848,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2958,7 +2958,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>35.23631477519695</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3009,10 +3009,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>107.3363007608859</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3085,10 +3085,10 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>19.91555826189057</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3274,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>78.91051008677645</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3666,10 +3666,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>1.799772605716168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>120.8326485140796</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>38.61213096654735</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>511.8624171433439</v>
+        <v>583.26140202276</v>
       </c>
       <c r="C2" t="n">
-        <v>511.8624171433439</v>
+        <v>583.26140202276</v>
       </c>
       <c r="D2" t="n">
-        <v>511.8624171433439</v>
+        <v>583.26140202276</v>
       </c>
       <c r="E2" t="n">
-        <v>511.8624171433439</v>
+        <v>393.8416170062752</v>
       </c>
       <c r="F2" t="n">
-        <v>331.1605361513811</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="G2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I2" t="n">
         <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678506</v>
+        <v>21.03371160678535</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058967</v>
+        <v>80.81213159058996</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079184</v>
+        <v>191.8743094079189</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644754</v>
+        <v>347.1218190644756</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123828</v>
+        <v>509.495204112383</v>
       </c>
       <c r="O2" t="n">
         <v>649.4845259985584</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020269</v>
+        <v>734.4611726020266</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652801</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R2" t="n">
-        <v>672.2420264262258</v>
+        <v>672.2420264262255</v>
       </c>
       <c r="S2" t="n">
-        <v>511.8624171433439</v>
+        <v>672.2420264262255</v>
       </c>
       <c r="T2" t="n">
-        <v>511.8624171433439</v>
+        <v>672.2420264262255</v>
       </c>
       <c r="U2" t="n">
-        <v>511.8624171433439</v>
+        <v>583.26140202276</v>
       </c>
       <c r="V2" t="n">
-        <v>511.8624171433439</v>
+        <v>583.26140202276</v>
       </c>
       <c r="W2" t="n">
-        <v>511.8624171433439</v>
+        <v>583.26140202276</v>
       </c>
       <c r="X2" t="n">
-        <v>511.8624171433439</v>
+        <v>583.26140202276</v>
       </c>
       <c r="Y2" t="n">
-        <v>511.8624171433439</v>
+        <v>583.26140202276</v>
       </c>
     </row>
     <row r="3">
@@ -4385,10 +4385,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>320.7740599518761</v>
+        <v>469.7084696131274</v>
       </c>
       <c r="C3" t="n">
-        <v>320.7740599518761</v>
+        <v>469.7084696131274</v>
       </c>
       <c r="D3" t="n">
         <v>320.7740599518761</v>
@@ -4412,49 +4412,49 @@
         <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024222</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772651</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140246</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546605</v>
+        <v>512.5000587546601</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476352</v>
+        <v>649.2101578476349</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017066</v>
+        <v>739.5989987017064</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652801</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R3" t="n">
-        <v>676.9378076264285</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="S3" t="n">
-        <v>676.9378076264285</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="T3" t="n">
-        <v>676.9378076264285</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="U3" t="n">
-        <v>676.9378076264285</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="V3" t="n">
-        <v>510.193844968361</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="W3" t="n">
-        <v>320.7740599518761</v>
+        <v>637.9238066331955</v>
       </c>
       <c r="X3" t="n">
-        <v>320.7740599518761</v>
+        <v>637.9238066331955</v>
       </c>
       <c r="Y3" t="n">
-        <v>320.7740599518761</v>
+        <v>637.9238066331955</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>750.1023486652801</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="C4" t="n">
-        <v>750.1023486652801</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="D4" t="n">
-        <v>750.1023486652801</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="E4" t="n">
-        <v>750.1023486652801</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="F4" t="n">
-        <v>697.3589686102956</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G4" t="n">
-        <v>697.3589686102956</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H4" t="n">
-        <v>697.3589686102956</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I4" t="n">
-        <v>697.3589686102956</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J4" t="n">
-        <v>697.3589686102956</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K4" t="n">
-        <v>697.3589686102956</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L4" t="n">
-        <v>709.3965921992918</v>
+        <v>27.03967056230176</v>
       </c>
       <c r="M4" t="n">
-        <v>725.3468614886973</v>
+        <v>42.98993985170716</v>
       </c>
       <c r="N4" t="n">
-        <v>748.7753949309536</v>
+        <v>66.41847329396334</v>
       </c>
       <c r="O4" t="n">
-        <v>750.1023486652801</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652801</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Q4" t="n">
-        <v>750.1023486652801</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="R4" t="n">
-        <v>750.1023486652801</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="S4" t="n">
-        <v>750.1023486652801</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="T4" t="n">
-        <v>750.1023486652801</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="U4" t="n">
-        <v>750.1023486652801</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="V4" t="n">
-        <v>750.1023486652801</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="W4" t="n">
-        <v>750.1023486652801</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="X4" t="n">
-        <v>750.1023486652801</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Y4" t="n">
-        <v>750.1023486652801</v>
+        <v>67.74542702828987</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1213.529217337157</v>
+        <v>698.0697172704172</v>
       </c>
       <c r="C5" t="n">
-        <v>844.5667003967453</v>
+        <v>698.0697172704172</v>
       </c>
       <c r="D5" t="n">
-        <v>844.5667003967453</v>
+        <v>339.8040186636667</v>
       </c>
       <c r="E5" t="n">
-        <v>844.5667003967453</v>
+        <v>339.8040186636667</v>
       </c>
       <c r="F5" t="n">
-        <v>433.5807956071378</v>
+        <v>332.8585179144632</v>
       </c>
       <c r="G5" t="n">
-        <v>345.9017493182461</v>
+        <v>36.85461835600862</v>
       </c>
       <c r="H5" t="n">
-        <v>34.55805631675778</v>
+        <v>36.85461835600862</v>
       </c>
       <c r="I5" t="n">
-        <v>34.55805631675778</v>
+        <v>36.85461835600862</v>
       </c>
       <c r="J5" t="n">
-        <v>111.6705539017223</v>
+        <v>122.3145011261497</v>
       </c>
       <c r="K5" t="n">
-        <v>277.9807166746988</v>
+        <v>301.135230455322</v>
       </c>
       <c r="L5" t="n">
-        <v>521.2049416030779</v>
+        <v>559.8799194566304</v>
       </c>
       <c r="M5" t="n">
-        <v>823.5081935709203</v>
+        <v>879.4526781788778</v>
       </c>
       <c r="N5" t="n">
-        <v>1135.316836582755</v>
+        <v>1208.810266619117</v>
       </c>
       <c r="O5" t="n">
-        <v>1416.413635079243</v>
+        <v>1506.478036654143</v>
       </c>
       <c r="P5" t="n">
-        <v>1621.822248332762</v>
+        <v>1726.029590732828</v>
       </c>
       <c r="Q5" t="n">
-        <v>1727.902815837889</v>
+        <v>1842.730917800431</v>
       </c>
       <c r="R5" t="n">
-        <v>1727.902815837889</v>
+        <v>1824.850123843669</v>
       </c>
       <c r="S5" t="n">
-        <v>1586.994975598237</v>
+        <v>1686.228952874643</v>
       </c>
       <c r="T5" t="n">
-        <v>1586.994975598237</v>
+        <v>1474.808889310351</v>
       </c>
       <c r="U5" t="n">
-        <v>1586.994975598237</v>
+        <v>1474.808889310351</v>
       </c>
       <c r="V5" t="n">
-        <v>1586.994975598237</v>
+        <v>1474.808889310351</v>
       </c>
       <c r="W5" t="n">
-        <v>1586.994975598237</v>
+        <v>1474.808889310351</v>
       </c>
       <c r="X5" t="n">
-        <v>1213.529217337157</v>
+        <v>1474.808889310351</v>
       </c>
       <c r="Y5" t="n">
-        <v>1213.529217337157</v>
+        <v>1084.669557334539</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>658.3862120846283</v>
+        <v>663.9189238785946</v>
       </c>
       <c r="C6" t="n">
-        <v>483.9331828035013</v>
+        <v>489.4658945974676</v>
       </c>
       <c r="D6" t="n">
-        <v>334.99877314225</v>
+        <v>340.5314849362163</v>
       </c>
       <c r="E6" t="n">
-        <v>175.7613181367945</v>
+        <v>181.2940299307608</v>
       </c>
       <c r="F6" t="n">
-        <v>175.7613181367945</v>
+        <v>36.85461835600862</v>
       </c>
       <c r="G6" t="n">
-        <v>175.7613181367945</v>
+        <v>36.85461835600862</v>
       </c>
       <c r="H6" t="n">
-        <v>78.31649151814673</v>
+        <v>36.85461835600862</v>
       </c>
       <c r="I6" t="n">
-        <v>34.55805631675778</v>
+        <v>36.85461835600862</v>
       </c>
       <c r="J6" t="n">
-        <v>61.66788464787564</v>
+        <v>68.93609211810437</v>
       </c>
       <c r="K6" t="n">
-        <v>186.157723980607</v>
+        <v>201.9232653644105</v>
       </c>
       <c r="L6" t="n">
-        <v>399.8722171189991</v>
+        <v>427.0634725857402</v>
       </c>
       <c r="M6" t="n">
-        <v>668.6238185223519</v>
+        <v>709.1483434077641</v>
       </c>
       <c r="N6" t="n">
-        <v>958.8971200352505</v>
+        <v>1013.107806306464</v>
       </c>
       <c r="O6" t="n">
-        <v>1202.220686228322</v>
+        <v>1268.951536358886</v>
       </c>
       <c r="P6" t="n">
-        <v>1378.176233639512</v>
+        <v>1454.955619064348</v>
       </c>
       <c r="Q6" t="n">
-        <v>1445.878660906553</v>
+        <v>1529.37522606414</v>
       </c>
       <c r="R6" t="n">
-        <v>1401.100270703778</v>
+        <v>1529.37522606414</v>
       </c>
       <c r="S6" t="n">
-        <v>1258.309378699373</v>
+        <v>1529.37522606414</v>
       </c>
       <c r="T6" t="n">
-        <v>1062.768760419128</v>
+        <v>1529.37522606414</v>
       </c>
       <c r="U6" t="n">
-        <v>1062.768760419128</v>
+        <v>1529.37522606414</v>
       </c>
       <c r="V6" t="n">
-        <v>827.6166521873852</v>
+        <v>1294.223117832397</v>
       </c>
       <c r="W6" t="n">
-        <v>827.6166521873852</v>
+        <v>1039.985761104195</v>
       </c>
       <c r="X6" t="n">
-        <v>827.6166521873852</v>
+        <v>832.1342608986627</v>
       </c>
       <c r="Y6" t="n">
-        <v>826.6015491046962</v>
+        <v>832.1342608986627</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>34.55805631675778</v>
+        <v>36.85461835600862</v>
       </c>
       <c r="C7" t="n">
-        <v>34.55805631675778</v>
+        <v>36.85461835600862</v>
       </c>
       <c r="D7" t="n">
-        <v>34.55805631675778</v>
+        <v>36.85461835600862</v>
       </c>
       <c r="E7" t="n">
-        <v>34.55805631675778</v>
+        <v>36.85461835600862</v>
       </c>
       <c r="F7" t="n">
-        <v>34.55805631675778</v>
+        <v>36.85461835600862</v>
       </c>
       <c r="G7" t="n">
-        <v>34.55805631675778</v>
+        <v>36.85461835600862</v>
       </c>
       <c r="H7" t="n">
-        <v>34.55805631675778</v>
+        <v>36.85461835600862</v>
       </c>
       <c r="I7" t="n">
-        <v>34.55805631675778</v>
+        <v>36.85461835600862</v>
       </c>
       <c r="J7" t="n">
-        <v>34.55805631675778</v>
+        <v>36.85461835600862</v>
       </c>
       <c r="K7" t="n">
-        <v>64.24066662574722</v>
+        <v>71.66278688941125</v>
       </c>
       <c r="L7" t="n">
-        <v>132.1299861584121</v>
+        <v>146.1110562813917</v>
       </c>
       <c r="M7" t="n">
-        <v>206.9680378347981</v>
+        <v>227.8646009517962</v>
       </c>
       <c r="N7" t="n">
-        <v>287.8841338195379</v>
+        <v>315.5317549640436</v>
       </c>
       <c r="O7" t="n">
-        <v>342.3101561934732</v>
+        <v>376.1934721167876</v>
       </c>
       <c r="P7" t="n">
-        <v>369.8190495858021</v>
+        <v>409.0380796419486</v>
       </c>
       <c r="Q7" t="n">
-        <v>369.8190495858021</v>
+        <v>409.0380796419486</v>
       </c>
       <c r="R7" t="n">
-        <v>369.8190495858021</v>
+        <v>409.0380796419486</v>
       </c>
       <c r="S7" t="n">
-        <v>369.8190495858021</v>
+        <v>409.0380796419486</v>
       </c>
       <c r="T7" t="n">
-        <v>255.3506354602879</v>
+        <v>409.0380796419486</v>
       </c>
       <c r="U7" t="n">
-        <v>255.3506354602879</v>
+        <v>409.0380796419486</v>
       </c>
       <c r="V7" t="n">
-        <v>255.3506354602879</v>
+        <v>409.0380796419486</v>
       </c>
       <c r="W7" t="n">
-        <v>255.3506354602879</v>
+        <v>409.0380796419486</v>
       </c>
       <c r="X7" t="n">
-        <v>255.3506354602879</v>
+        <v>409.0380796419486</v>
       </c>
       <c r="Y7" t="n">
-        <v>34.55805631675778</v>
+        <v>218.5030831862483</v>
       </c>
     </row>
     <row r="8">
@@ -4780,49 +4780,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1018.254896603644</v>
+        <v>1579.362210729296</v>
       </c>
       <c r="C8" t="n">
-        <v>649.2923796632319</v>
+        <v>1210.399693788884</v>
       </c>
       <c r="D8" t="n">
-        <v>649.2923796632319</v>
+        <v>852.1339951821336</v>
       </c>
       <c r="E8" t="n">
-        <v>263.5041270649877</v>
+        <v>466.3457425838894</v>
       </c>
       <c r="F8" t="n">
-        <v>55.3598377942818</v>
+        <v>55.35983779428181</v>
       </c>
       <c r="G8" t="n">
-        <v>43.36919653809314</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="H8" t="n">
-        <v>43.36919653809314</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809314</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J8" t="n">
         <v>152.5078184301905</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232726</v>
+        <v>366.8168396232728</v>
       </c>
       <c r="L8" t="n">
-        <v>669.587892771188</v>
+        <v>669.5878927711882</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.148464578731</v>
+        <v>1038.148464578732</v>
       </c>
       <c r="N8" t="n">
         <v>1417.286540135169</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.960612545599</v>
+        <v>1761.9606125456</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.63095817245</v>
+        <v>2021.630958172451</v>
       </c>
       <c r="Q8" t="n">
         <v>2168.459826904657</v>
@@ -4846,10 +4846,10 @@
         <v>2168.459826904657</v>
       </c>
       <c r="X8" t="n">
-        <v>1794.994068643577</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="Y8" t="n">
-        <v>1404.854736667765</v>
+        <v>1965.962050793418</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>693.01044638299</v>
+        <v>672.528648459042</v>
       </c>
       <c r="C9" t="n">
-        <v>518.5574171018631</v>
+        <v>498.075619177915</v>
       </c>
       <c r="D9" t="n">
-        <v>369.6230074406118</v>
+        <v>349.1412095166637</v>
       </c>
       <c r="E9" t="n">
-        <v>210.3855524351563</v>
+        <v>189.9037545112082</v>
       </c>
       <c r="F9" t="n">
-        <v>63.85099446204126</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="G9" t="n">
-        <v>43.36919653809314</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="H9" t="n">
-        <v>43.36919653809314</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809314</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562342</v>
+        <v>89.55356510562345</v>
       </c>
       <c r="K9" t="n">
-        <v>246.6448318504524</v>
+        <v>246.6448318504525</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104403</v>
+        <v>504.1959674104405</v>
       </c>
       <c r="M9" t="n">
-        <v>824.1028628789501</v>
+        <v>824.1028628789504</v>
       </c>
       <c r="N9" t="n">
         <v>1166.885386873582</v>
       </c>
       <c r="O9" t="n">
-        <v>1458.244633128148</v>
+        <v>1458.244633128149</v>
       </c>
       <c r="P9" t="n">
-        <v>1672.753048689049</v>
+        <v>1672.75304868905</v>
       </c>
       <c r="Q9" t="n">
-        <v>1766.227047333489</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="R9" t="n">
-        <v>1766.227047333489</v>
+        <v>1734.238298972668</v>
       </c>
       <c r="S9" t="n">
-        <v>1766.227047333489</v>
+        <v>1595.273638474386</v>
       </c>
       <c r="T9" t="n">
-        <v>1766.227047333489</v>
+        <v>1595.273638474386</v>
       </c>
       <c r="U9" t="n">
-        <v>1766.227047333489</v>
+        <v>1595.273638474386</v>
       </c>
       <c r="V9" t="n">
-        <v>1531.074939101746</v>
+        <v>1510.593141177798</v>
       </c>
       <c r="W9" t="n">
-        <v>1276.837582373545</v>
+        <v>1256.355784449597</v>
       </c>
       <c r="X9" t="n">
-        <v>1068.986082168012</v>
+        <v>1048.504284244064</v>
       </c>
       <c r="Y9" t="n">
-        <v>861.2257834030581</v>
+        <v>840.7439854791101</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>212.3053794660001</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="C10" t="n">
-        <v>43.36919653809314</v>
+        <v>488.2888770307324</v>
       </c>
       <c r="D10" t="n">
-        <v>43.36919653809314</v>
+        <v>338.1722376183966</v>
       </c>
       <c r="E10" t="n">
-        <v>43.36919653809314</v>
+        <v>190.2591440360035</v>
       </c>
       <c r="F10" t="n">
-        <v>43.36919653809314</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="G10" t="n">
-        <v>43.36919653809314</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="H10" t="n">
-        <v>43.36919653809314</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="I10" t="n">
-        <v>43.36919653809314</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J10" t="n">
-        <v>43.36919653809314</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981547</v>
+        <v>92.71685897981551</v>
       </c>
       <c r="L10" t="n">
-        <v>185.7706748018946</v>
+        <v>185.7706748018947</v>
       </c>
       <c r="M10" t="n">
-        <v>287.1411594927338</v>
+        <v>287.141159492734</v>
       </c>
       <c r="N10" t="n">
-        <v>393.9588065377469</v>
+        <v>393.9588065377471</v>
       </c>
       <c r="O10" t="n">
-        <v>472.309103603367</v>
+        <v>472.3091036033672</v>
       </c>
       <c r="P10" t="n">
-        <v>520.2893470406003</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="Q10" t="n">
-        <v>520.2893470406003</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="R10" t="n">
-        <v>520.2893470406003</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="S10" t="n">
-        <v>520.2893470406003</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="T10" t="n">
-        <v>520.2893470406003</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="U10" t="n">
-        <v>520.2893470406003</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="V10" t="n">
-        <v>520.2893470406003</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="W10" t="n">
-        <v>520.2893470406003</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="X10" t="n">
-        <v>520.2893470406003</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="Y10" t="n">
-        <v>393.9538442962398</v>
+        <v>520.2893470406007</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.224468905844</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.261951965432</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004711</v>
+        <v>1589.996253358682</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406466</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168588</v>
+        <v>793.22209597083</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362663</v>
+        <v>379.2389888872365</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797183</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>372.3074987251939</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>841.9378825128761</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1461.457663018651</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2182.462224957689</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2919.747202874795</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4514.497374127289</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>4640.581161304027</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492576</v>
+        <v>4555.113898070876</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474782</v>
+        <v>4353.904749750194</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466571</v>
+        <v>4100.461420469744</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3769.398533126173</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.429399206857</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591806</v>
+        <v>3093.963640945778</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615995</v>
+        <v>2703.824308969966</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>943.3991132778466</v>
+        <v>942.6241165038822</v>
       </c>
       <c r="C12" t="n">
-        <v>768.9460839967196</v>
+        <v>768.1710872227552</v>
       </c>
       <c r="D12" t="n">
-        <v>620.0116743354683</v>
+        <v>619.2366775615039</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>459.9992225560484</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568978</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028057</v>
+        <v>177.6844143428629</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273898</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803936</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516141</v>
+        <v>570.9683475412853</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>570.9683475412853</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266882</v>
+        <v>733.6583989593863</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1355.754362358723</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1902.630837358917</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2322.214355784993</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R12" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="S12" t="n">
-        <v>2434.850501963388</v>
+        <v>2434.163925027597</v>
       </c>
       <c r="T12" t="n">
-        <v>2244.643795685161</v>
+        <v>2243.870218930011</v>
       </c>
       <c r="U12" t="n">
-        <v>2016.615714228345</v>
+        <v>2015.840717454381</v>
       </c>
       <c r="V12" t="n">
-        <v>1781.463605996603</v>
+        <v>1780.688609222638</v>
       </c>
       <c r="W12" t="n">
-        <v>1527.226249268401</v>
+        <v>1526.451252494437</v>
       </c>
       <c r="X12" t="n">
-        <v>1319.374749062868</v>
+        <v>1318.599752288904</v>
       </c>
       <c r="Y12" t="n">
-        <v>1111.614450297915</v>
+        <v>1110.83945352395</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>789.7592298206043</v>
+        <v>1002.38969649272</v>
       </c>
       <c r="C13" t="n">
-        <v>620.8230468926974</v>
+        <v>833.4535135648131</v>
       </c>
       <c r="D13" t="n">
-        <v>470.7064074803617</v>
+        <v>683.3368741524773</v>
       </c>
       <c r="E13" t="n">
-        <v>322.7933138979686</v>
+        <v>548.7884825109817</v>
       </c>
       <c r="F13" t="n">
-        <v>175.9033664000582</v>
+        <v>401.8985350130713</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000582</v>
+        <v>234.6843401876502</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782956</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>431.4224730861981</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797742</v>
+        <v>819.1842911693324</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1238.413883213792</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1653.109749005499</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2020.132206020528</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2245.205584149098</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>2245.205584149098</v>
       </c>
       <c r="U13" t="n">
-        <v>1964.291482935239</v>
+        <v>1956.129370463825</v>
       </c>
       <c r="V13" t="n">
-        <v>1709.606994729352</v>
+        <v>1701.444882257938</v>
       </c>
       <c r="W13" t="n">
-        <v>1420.189824692392</v>
+        <v>1412.027712220977</v>
       </c>
       <c r="X13" t="n">
-        <v>1192.200273794374</v>
+        <v>1184.03816132296</v>
       </c>
       <c r="Y13" t="n">
-        <v>971.4076946508441</v>
+        <v>1184.03816132296</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.224468905844</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.261951965432</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1589.996253358682</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.22209597083</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.2389888872365</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>372.3074987251936</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>841.9378825128755</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2182.462224957687</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2919.747202874793</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3602.609239333932</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4150.91518802128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4514.497374127288</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4640.581161304026</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4555.113898070875</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4353.904749750193</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4100.461420469743</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.198054476972</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.429399206857</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3093.963640945778</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2703.824308969966</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>943.3991132778466</v>
+        <v>942.6241165038822</v>
       </c>
       <c r="C15" t="n">
-        <v>768.9460839967196</v>
+        <v>768.1710872227552</v>
       </c>
       <c r="D15" t="n">
-        <v>620.0116743354683</v>
+        <v>619.2366775615039</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>459.9992225560484</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568978</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028057</v>
+        <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I15" t="n">
-        <v>95.584050252739</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>570.9683475412853</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266882</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2275.814998036501</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R15" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="S15" t="n">
-        <v>2434.850501963388</v>
+        <v>2434.163925027597</v>
       </c>
       <c r="T15" t="n">
-        <v>2244.643795685161</v>
+        <v>2243.870218930011</v>
       </c>
       <c r="U15" t="n">
-        <v>2016.615714228345</v>
+        <v>2015.840717454381</v>
       </c>
       <c r="V15" t="n">
-        <v>1781.463605996603</v>
+        <v>1780.688609222638</v>
       </c>
       <c r="W15" t="n">
-        <v>1527.226249268401</v>
+        <v>1526.451252494437</v>
       </c>
       <c r="X15" t="n">
-        <v>1319.374749062868</v>
+        <v>1318.599752288904</v>
       </c>
       <c r="Y15" t="n">
-        <v>1111.614450297915</v>
+        <v>1110.83945352395</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>494.0589900220732</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>494.0589900220732</v>
       </c>
       <c r="D16" t="n">
-        <v>261.0127623330919</v>
+        <v>407.9389116338948</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0127623330919</v>
+        <v>260.0258180515017</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>260.0258180515017</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797186</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>431.4224730861981</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>819.1842911693324</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1238.413883213792</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1653.109749005499</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2020.132206020528</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2177.346239107599</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1124.48958489386</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>896.5000339958431</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>675.7074548523129</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.224468905844</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.261951965432</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1589.996253358682</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.22209597083</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.2389888872365</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>372.3074987251939</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>841.9378825128758</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1461.457663018651</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2182.462224957689</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2919.747202874795</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3602.609239333934</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4150.915188021282</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4514.49737412729</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4640.581161304028</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4605.913419421674</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4404.704271100993</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.260941820542</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.198054476972</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.429399206857</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3093.963640945778</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2703.824308969966</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>943.3991132778466</v>
+        <v>942.6241165038822</v>
       </c>
       <c r="C18" t="n">
-        <v>768.9460839967196</v>
+        <v>768.1710872227552</v>
       </c>
       <c r="D18" t="n">
-        <v>620.0116743354683</v>
+        <v>619.2366775615039</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>459.9992225560484</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568978</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028057</v>
+        <v>177.6844143428629</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I18" t="n">
-        <v>95.584050252739</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245714</v>
+        <v>570.9683475412853</v>
       </c>
       <c r="L18" t="n">
-        <v>776.17510664033</v>
+        <v>791.7848371185818</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266882</v>
+        <v>1383.80319137071</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2005.899154770046</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R18" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="S18" t="n">
-        <v>2434.850501963388</v>
+        <v>2434.163925027597</v>
       </c>
       <c r="T18" t="n">
-        <v>2244.643795685161</v>
+        <v>2243.870218930011</v>
       </c>
       <c r="U18" t="n">
-        <v>2016.615714228345</v>
+        <v>2015.840717454381</v>
       </c>
       <c r="V18" t="n">
-        <v>1781.463605996603</v>
+        <v>1780.688609222638</v>
       </c>
       <c r="W18" t="n">
-        <v>1527.226249268401</v>
+        <v>1526.451252494437</v>
       </c>
       <c r="X18" t="n">
-        <v>1319.374749062868</v>
+        <v>1318.599752288904</v>
       </c>
       <c r="Y18" t="n">
-        <v>1111.614450297915</v>
+        <v>1110.83945352395</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>707.672526468518</v>
+        <v>931.1710892086095</v>
       </c>
       <c r="C19" t="n">
-        <v>538.7363435406111</v>
+        <v>762.2349062807026</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282753</v>
+        <v>612.1182668683668</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>464.2051732859737</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797186</v>
+        <v>317.3152257880633</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797186</v>
+        <v>317.3152257880633</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>175.4425088264937</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>431.4224730861981</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>819.1842911693324</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1238.413883213792</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1653.109749005499</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2020.132206020528</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="S19" t="n">
-        <v>2390.881471216017</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="T19" t="n">
-        <v>2171.280006238959</v>
+        <v>2394.779556008517</v>
       </c>
       <c r="U19" t="n">
-        <v>1882.204779583153</v>
+        <v>2105.703342323244</v>
       </c>
       <c r="V19" t="n">
-        <v>1627.520291377266</v>
+        <v>1851.018854117357</v>
       </c>
       <c r="W19" t="n">
-        <v>1338.103121340305</v>
+        <v>1561.601684080397</v>
       </c>
       <c r="X19" t="n">
-        <v>1110.113570442288</v>
+        <v>1333.612133182379</v>
       </c>
       <c r="Y19" t="n">
-        <v>889.3209912987577</v>
+        <v>1112.819554038849</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2266.424947555045</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1897.462430614633</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1539.196732007883</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406467</v>
+        <v>1153.408479409639</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168597</v>
+        <v>742.4225746200311</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.2389888872365</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>92.81162322608066</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>372.3074987251937</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>841.9378825128756</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2182.462224957689</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2919.747202874795</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4514.497374127289</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4640.581161304027</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4555.113898070876</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4353.904749750194</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4100.461420469744</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3769.398533126173</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3416.629877856059</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3043.164119594979</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2653.024787619167</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>943.3991132778466</v>
+        <v>942.6241165038822</v>
       </c>
       <c r="C21" t="n">
-        <v>768.9460839967196</v>
+        <v>768.1710872227552</v>
       </c>
       <c r="D21" t="n">
-        <v>620.0116743354683</v>
+        <v>619.2366775615039</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>459.9992225560484</v>
       </c>
       <c r="F21" t="n">
-        <v>314.2396613568978</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G21" t="n">
-        <v>178.4809954028057</v>
+        <v>177.6844143428629</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>570.9683475412853</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2275.814998036501</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R21" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="S21" t="n">
-        <v>2434.850501963388</v>
+        <v>2434.163925027597</v>
       </c>
       <c r="T21" t="n">
-        <v>2244.643795685161</v>
+        <v>2243.870218930011</v>
       </c>
       <c r="U21" t="n">
-        <v>2016.615714228345</v>
+        <v>2015.840717454381</v>
       </c>
       <c r="V21" t="n">
-        <v>1781.463605996603</v>
+        <v>1780.688609222638</v>
       </c>
       <c r="W21" t="n">
-        <v>1527.226249268401</v>
+        <v>1526.451252494437</v>
       </c>
       <c r="X21" t="n">
-        <v>1319.374749062868</v>
+        <v>1318.599752288904</v>
       </c>
       <c r="Y21" t="n">
-        <v>1111.614450297915</v>
+        <v>1110.83945352395</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>849.3843576263199</v>
+        <v>494.0589900220732</v>
       </c>
       <c r="C22" t="n">
-        <v>680.448174698413</v>
+        <v>325.1228070941663</v>
       </c>
       <c r="D22" t="n">
-        <v>530.3315352860773</v>
+        <v>325.1228070941663</v>
       </c>
       <c r="E22" t="n">
-        <v>382.4184417036842</v>
+        <v>325.1228070941663</v>
       </c>
       <c r="F22" t="n">
-        <v>235.5284942057738</v>
+        <v>260.0258180515017</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>431.4224730861981</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>819.1842911693324</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1238.413883213792</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1653.109749005499</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2020.132206020528</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2177.346239107599</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U22" t="n">
-        <v>1734.499440703994</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V22" t="n">
-        <v>1479.814952498107</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="W22" t="n">
-        <v>1479.814952498107</v>
+        <v>1124.48958489386</v>
       </c>
       <c r="X22" t="n">
-        <v>1251.82540160009</v>
+        <v>896.5000339958431</v>
       </c>
       <c r="Y22" t="n">
-        <v>1031.03282245656</v>
+        <v>675.7074548523129</v>
       </c>
     </row>
     <row r="23">
@@ -5980,7 +5980,7 @@
         <v>793.7736536168597</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797186</v>
@@ -5992,16 +5992,16 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400667</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121598</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121598</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121598</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121598</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270397</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797186</v>
@@ -6147,52 +6147,52 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>174.052681478291</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038296</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797697</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910804</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570813</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832658</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487563</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510504</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854702</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648815</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611854</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138365</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703064</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="26">
@@ -6208,10 +6208,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
         <v>793.7736536168611</v>
@@ -6220,25 +6220,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6247,7 +6247,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1016.58045691144</v>
+        <v>806.8386896933887</v>
       </c>
       <c r="C28" t="n">
-        <v>847.644273983533</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711973</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888042</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2191.112710026075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V28" t="n">
-        <v>1936.428221820188</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W28" t="n">
-        <v>1647.011051783227</v>
+        <v>1437.269284565176</v>
       </c>
       <c r="X28" t="n">
-        <v>1419.02150088521</v>
+        <v>1209.279733667159</v>
       </c>
       <c r="Y28" t="n">
-        <v>1198.22892174168</v>
+        <v>988.4871545236284</v>
       </c>
     </row>
     <row r="29">
@@ -6460,22 +6460,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1016.58045691144</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C31" t="n">
-        <v>847.6442739835331</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711974</v>
+        <v>443.4949469776659</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888043</v>
+        <v>443.4949469776659</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>296.6049994797555</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>129.4089001946355</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6657,16 +6657,16 @@
         <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1647.011051783227</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1647.011051783227</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1419.02150088521</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>1198.22892174168</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6697,13 +6697,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.74194400383</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797701</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853357</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832659</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="38">
@@ -7171,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D40" t="n">
-        <v>343.0994656851783</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E40" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2324.909903263008</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2105.308438285949</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1816.233211630147</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1561.54872342426</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="41">
@@ -7411,19 +7411,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7560,7 +7560,7 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7624,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7669,31 +7669,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7721,10 +7721,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J45" t="n">
         <v>245.2306927803937</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>945.402603663004</v>
       </c>
     </row>
   </sheetData>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23320,7 +23320,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>50.2915261372907</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>13.23105492148849</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U13" t="n">
-        <v>92.12028678808278</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23554,7 +23554,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>50.29152613729161</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23655,13 +23655,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>65.54986409393068</v>
+        <v>63.35659541391574</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>50.29152613728939</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S19" t="n">
-        <v>125.505489761044</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>184.221738245128</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23983,7 +23983,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>50.29152613729093</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>80.97502887069327</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,13 +24183,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>45.65245098079498</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24369,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.2291039219467</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24414,13 +24414,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>176.3785887617859</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>250.2980548978887</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>3.870763674540058</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24846,7 +24846,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>105.0583980710269</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24897,10 +24897,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>144.8013425629421</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>61.35027805667497</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>138.4949402405118</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25554,10 +25554,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>146.8157004124962</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>60.19363748756503</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25800,10 +25800,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26028,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>110.003342051665</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>902499.9148193023</v>
+        <v>897586.4039621297</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>902499.9148193023</v>
+        <v>897586.4039621296</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>902499.9148193023</v>
+        <v>897586.4039621301</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>902499.9148193025</v>
+        <v>897586.4039621296</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>902499.9148193023</v>
+        <v>902499.9148193025</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>902499.9148193025</v>
+        <v>902499.9148193024</v>
       </c>
     </row>
     <row r="11">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>902499.9148193024</v>
+        <v>902499.9148193025</v>
       </c>
     </row>
   </sheetData>
@@ -26313,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.1504117841</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.1504117841</v>
       </c>
       <c r="D2" t="n">
         <v>533677.1504117844</v>
       </c>
       <c r="E2" t="n">
-        <v>524645.2897985036</v>
+        <v>521741.8515647201</v>
       </c>
       <c r="F2" t="n">
+        <v>521741.8515647201</v>
+      </c>
+      <c r="G2" t="n">
+        <v>521741.8515647199</v>
+      </c>
+      <c r="H2" t="n">
+        <v>521741.85156472</v>
+      </c>
+      <c r="I2" t="n">
         <v>524645.2897985037</v>
       </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
         <v>524645.2897985039</v>
       </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
+        <v>524645.2897985041</v>
+      </c>
+      <c r="L2" t="n">
+        <v>524645.289798504</v>
+      </c>
+      <c r="M2" t="n">
         <v>524645.2897985039</v>
-      </c>
-      <c r="I2" t="n">
-        <v>524645.2897985039</v>
-      </c>
-      <c r="J2" t="n">
-        <v>524645.2897985037</v>
-      </c>
-      <c r="K2" t="n">
-        <v>524645.289798504</v>
-      </c>
-      <c r="L2" t="n">
-        <v>524645.2897985041</v>
-      </c>
-      <c r="M2" t="n">
-        <v>524645.2897985041</v>
       </c>
       <c r="N2" t="n">
         <v>524645.289798504</v>
@@ -26355,7 +26355,7 @@
         <v>524645.289798504</v>
       </c>
       <c r="P2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
     </row>
     <row r="3">
@@ -26365,46 +26365,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208456</v>
+        <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>270592.3620253134</v>
+        <v>302369.4048679848</v>
       </c>
       <c r="D3" t="n">
-        <v>115410.0540231927</v>
+        <v>85329.23106956788</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742639</v>
+        <v>589710.8045858945</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.246394276677165e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10818.91345744836</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854465</v>
+        <v>49064.94472854471</v>
       </c>
       <c r="K3" t="n">
-        <v>62913.63765882009</v>
+        <v>70301.90739529391</v>
       </c>
       <c r="L3" t="n">
-        <v>27875.25362197486</v>
+        <v>20609.76383352442</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.3805515976</v>
+        <v>154015.6312544151</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.094354047381785e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278536.5648341298</v>
+        <v>278536.5648341299</v>
       </c>
       <c r="C4" t="n">
-        <v>206604.4229263459</v>
+        <v>198159.2161991123</v>
       </c>
       <c r="D4" t="n">
         <v>174202.9900888974</v>
       </c>
       <c r="E4" t="n">
+        <v>15430.10738565431</v>
+      </c>
+      <c r="F4" t="n">
+        <v>15430.10738565431</v>
+      </c>
+      <c r="G4" t="n">
+        <v>15430.10738565431</v>
+      </c>
+      <c r="H4" t="n">
+        <v>15430.10738565431</v>
+      </c>
+      <c r="I4" t="n">
         <v>15436.64000687967</v>
-      </c>
-      <c r="F4" t="n">
-        <v>15436.64000687967</v>
-      </c>
-      <c r="G4" t="n">
-        <v>15436.64000687967</v>
-      </c>
-      <c r="H4" t="n">
-        <v>15436.64000687967</v>
-      </c>
-      <c r="I4" t="n">
-        <v>15436.64000687966</v>
       </c>
       <c r="J4" t="n">
         <v>15436.64000687967</v>
@@ -26469,25 +26469,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161359</v>
+        <v>56985.80041161358</v>
       </c>
       <c r="C5" t="n">
-        <v>76435.73471936827</v>
+        <v>78719.83982550885</v>
       </c>
       <c r="D5" t="n">
         <v>85199.08185587233</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>100142.1285138384</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>100142.1285138384</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239071</v>
+        <v>100142.1285138384</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239071</v>
+        <v>100142.1285138384</v>
       </c>
       <c r="I5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-393202.1173548049</v>
+        <v>-393202.1173548048</v>
       </c>
       <c r="C6" t="n">
-        <v>-19955.36925924315</v>
+        <v>-45571.31048082185</v>
       </c>
       <c r="D6" t="n">
-        <v>158865.024443822</v>
+        <v>188945.8473974468</v>
       </c>
       <c r="E6" t="n">
-        <v>-193704.466860904</v>
+        <v>-183587.0939162327</v>
       </c>
       <c r="F6" t="n">
-        <v>407738.74071336</v>
+        <v>406123.7106696618</v>
       </c>
       <c r="G6" t="n">
-        <v>407738.7407133601</v>
+        <v>406123.7106696614</v>
       </c>
       <c r="H6" t="n">
-        <v>407738.74071336</v>
+        <v>406123.7106696617</v>
       </c>
       <c r="I6" t="n">
-        <v>407738.7407133601</v>
+        <v>397232.4685848329</v>
       </c>
       <c r="J6" t="n">
-        <v>358673.7959848153</v>
+        <v>358986.4373137366</v>
       </c>
       <c r="K6" t="n">
-        <v>344825.1030545401</v>
+        <v>337749.4746469876</v>
       </c>
       <c r="L6" t="n">
-        <v>379863.4870913855</v>
+        <v>387441.618208757</v>
       </c>
       <c r="M6" t="n">
-        <v>250592.3601617627</v>
+        <v>254035.7507878663</v>
       </c>
       <c r="N6" t="n">
-        <v>407738.7407133602</v>
+        <v>408051.3820422814</v>
       </c>
       <c r="O6" t="n">
-        <v>407738.7407133602</v>
+        <v>408051.3820422813</v>
       </c>
       <c r="P6" t="n">
-        <v>407738.7407133602</v>
+        <v>408051.3820422814</v>
       </c>
     </row>
   </sheetData>
@@ -26737,25 +26737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>758.8996292950626</v>
+        <v>783.6114621533168</v>
       </c>
       <c r="D3" t="n">
-        <v>853.7106645376849</v>
+        <v>853.7106645376851</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="G3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="H3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="I3" t="n">
         <v>1367.975500341674</v>
@@ -26792,22 +26792,22 @@
         <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>431.9757039594722</v>
+        <v>460.6827294501078</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261642</v>
+        <v>542.1149567261643</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>210.4296883821578</v>
+        <v>235.1415212404122</v>
       </c>
       <c r="D3" t="n">
-        <v>94.81103524262232</v>
+        <v>70.09920238436837</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039886</v>
+        <v>504.3303841787007</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,10 +26977,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>9.93445162528792</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27014,43 +27014,43 @@
         <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>244.4501167931521</v>
+        <v>273.1571422837878</v>
       </c>
       <c r="D4" t="n">
-        <v>110.1392527666921</v>
+        <v>81.43222727605651</v>
       </c>
       <c r="E4" t="n">
-        <v>630.5933313734837</v>
+        <v>618.0303335998424</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931526</v>
+        <v>273.1571422837878</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666921</v>
+        <v>81.43222727605651</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734837</v>
+        <v>618.0303335998422</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27260,19 +27260,19 @@
         <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931521</v>
+        <v>273.1571422837878</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666921</v>
+        <v>81.43222727605651</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734837</v>
+        <v>618.0303335998424</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27387,19 +27387,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>194.4047829059418</v>
       </c>
       <c r="F2" t="n">
-        <v>227.9811835596683</v>
+        <v>219.3504585753915</v>
       </c>
       <c r="G2" t="n">
-        <v>225.572246063738</v>
+        <v>225.5722460637381</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
         <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>163.0784424055994</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27457,13 +27457,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -27478,10 +27478,10 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409147</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265835</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27505,22 +27505,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920012</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
         <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>67.72406411793844</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>64.16939599459957</v>
+        <v>140.6382265491561</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27548,7 +27548,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>93.20510176849658</v>
+        <v>93.20510176849682</v>
       </c>
       <c r="G4" t="n">
         <v>167.0019352027142</v>
@@ -27560,10 +27560,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825414</v>
+        <v>57.06999962825418</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402848</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,10 +27578,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709382</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159722</v>
+        <v>68.68604055159726</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>325.4496289080466</v>
+        <v>119.1086801194879</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.2128488020882</v>
       </c>
       <c r="I5" t="n">
-        <v>92.85788772760026</v>
+        <v>89.0279261747647</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23.94240680425884</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>209.7407415149288</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1015846853496</v>
+        <v>251.0936371612143</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27706,16 +27706,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>2.074194934379221</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7111670171797</v>
+        <v>135.6580132634846</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>95.95702499440586</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>41.49077643487229</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>41.03041096167756</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>140.3756754225237</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.3709651691716</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8339906239991</v>
+        <v>225.8304936665192</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>204.6777437254423</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27788,16 +27788,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6224718302218</v>
+        <v>166.5779095086741</v>
       </c>
       <c r="H7" t="n">
-        <v>150.0598964836597</v>
+        <v>149.6636969338995</v>
       </c>
       <c r="I7" t="n">
-        <v>114.2957212599129</v>
+        <v>112.9556107173702</v>
       </c>
       <c r="J7" t="n">
-        <v>30.24193919304037</v>
+        <v>27.09138305961999</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,19 +27818,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.91115760589139</v>
+        <v>33.17967084429502</v>
       </c>
       <c r="R7" t="n">
-        <v>115.7603165166223</v>
+        <v>113.7566324950334</v>
       </c>
       <c r="S7" t="n">
-        <v>200.1672441130602</v>
+        <v>199.3906443820885</v>
       </c>
       <c r="T7" t="n">
-        <v>108.7746000051916</v>
+        <v>221.9079273428379</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2443834913143</v>
+        <v>286.2419528192299</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>29.95500686095156</v>
       </c>
     </row>
     <row r="8">
@@ -27858,13 +27858,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>200.8131993637126</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708287</v>
+        <v>78.16360657708285</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27918,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>185.7651403059262</v>
       </c>
     </row>
     <row r="9">
@@ -27946,13 +27946,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>115.2302539023266</v>
+        <v>135.5072338470352</v>
       </c>
       <c r="H9" t="n">
         <v>94.50081326185511</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904879</v>
+        <v>36.29946757904878</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,10 +27979,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721421</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>192.7632183107638</v>
@@ -27991,7 +27991,7 @@
         <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>148.9668948258037</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>135.5663557888582</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.4515011109318</v>
@@ -28034,7 +28034,7 @@
         <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923915</v>
+        <v>18.15430933923912</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425542</v>
+        <v>22.59469128425539</v>
       </c>
       <c r="R10" t="n">
         <v>108.0728512656385</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>93.51250563517785</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28563,7 +28563,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28778,7 +28778,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>-3.959144123655279e-12</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -29052,7 +29052,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29219,7 +29219,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>-4.713266813875332e-12</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29994,7 +29994,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -30170,7 +30170,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>-4.336205468765305e-12</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -31044,46 +31044,46 @@
         <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954486</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043123</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655544</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>280.472093452864</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672894</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470275</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470026</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622681</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244296</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151093</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974684</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619225</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924584</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,13 +31120,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435305</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590852</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31135,34 +31135,34 @@
         <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405033</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975331</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829655</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292674</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628873</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.2466083355008</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288821</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820371</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390166</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445823</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620019</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639163</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114197</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31223,25 +31223,25 @@
         <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592434</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784863</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647912</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181396</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061364</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.050852781085676</v>
+        <v>3.150196832777151</v>
       </c>
       <c r="H5" t="n">
-        <v>31.24454604429369</v>
+        <v>32.261953313679</v>
       </c>
       <c r="I5" t="n">
-        <v>117.6180018428057</v>
+        <v>121.4479633956412</v>
       </c>
       <c r="J5" t="n">
-        <v>258.9373162286707</v>
+        <v>267.3690184359199</v>
       </c>
       <c r="K5" t="n">
-        <v>388.0799144520274</v>
+        <v>400.7168503673768</v>
       </c>
       <c r="L5" t="n">
-        <v>481.4474502511783</v>
+        <v>497.1246866884806</v>
       </c>
       <c r="M5" t="n">
-        <v>535.7030533968107</v>
+        <v>553.1469996133812</v>
       </c>
       <c r="N5" t="n">
-        <v>544.3712888610704</v>
+        <v>562.0974963645093</v>
       </c>
       <c r="O5" t="n">
-        <v>514.0343715191497</v>
+        <v>530.7727266085815</v>
       </c>
       <c r="P5" t="n">
-        <v>438.716443486097</v>
+        <v>453.0022422993956</v>
       </c>
       <c r="Q5" t="n">
-        <v>329.4577782634661</v>
+        <v>340.1858182255638</v>
       </c>
       <c r="R5" t="n">
-        <v>191.6431310098733</v>
+        <v>197.8835517969379</v>
       </c>
       <c r="S5" t="n">
-        <v>69.52130774898993</v>
+        <v>71.78511032690939</v>
       </c>
       <c r="T5" t="n">
-        <v>13.35510804920256</v>
+        <v>13.78998663548198</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2440682224868541</v>
+        <v>0.252015746622172</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.632350146030889</v>
+        <v>1.685503899726002</v>
       </c>
       <c r="H6" t="n">
-        <v>15.76506588403517</v>
+        <v>16.2784192420906</v>
       </c>
       <c r="I6" t="n">
-        <v>56.20152915062493</v>
+        <v>58.03160356512771</v>
       </c>
       <c r="J6" t="n">
-        <v>154.2212916475938</v>
+        <v>159.2431557192887</v>
       </c>
       <c r="K6" t="n">
-        <v>263.5887514316634</v>
+        <v>272.1719170009308</v>
       </c>
       <c r="L6" t="n">
-        <v>354.4276051721894</v>
+        <v>365.9687305084901</v>
       </c>
       <c r="M6" t="n">
-        <v>413.600297965809</v>
+        <v>427.0682468735576</v>
       </c>
       <c r="N6" t="n">
-        <v>424.5470671468672</v>
+        <v>438.3714725870711</v>
       </c>
       <c r="O6" t="n">
-        <v>388.3776244374458</v>
+        <v>401.0242545984054</v>
       </c>
       <c r="P6" t="n">
-        <v>311.7072835872494</v>
+        <v>321.8573192380293</v>
       </c>
       <c r="Q6" t="n">
-        <v>208.36806425475</v>
+        <v>215.1530942878315</v>
       </c>
       <c r="R6" t="n">
-        <v>101.3488976632161</v>
+        <v>104.6490930022864</v>
       </c>
       <c r="S6" t="n">
-        <v>30.32018801947725</v>
+        <v>31.3074956813141</v>
       </c>
       <c r="T6" t="n">
-        <v>6.579516597378889</v>
+        <v>6.79376352564998</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1073914569757164</v>
+        <v>0.1108884144556581</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.368507528236998</v>
+        <v>1.413069849784669</v>
       </c>
       <c r="H7" t="n">
-        <v>12.16727602377986</v>
+        <v>12.56347557354007</v>
       </c>
       <c r="I7" t="n">
-        <v>41.15475366734537</v>
+        <v>42.49486420988807</v>
       </c>
       <c r="J7" t="n">
-        <v>96.75348224635574</v>
+        <v>99.90403837977613</v>
       </c>
       <c r="K7" t="n">
-        <v>158.9956928260803</v>
+        <v>164.1730243658916</v>
       </c>
       <c r="L7" t="n">
-        <v>203.4597465162533</v>
+        <v>210.0849483943499</v>
       </c>
       <c r="M7" t="n">
-        <v>214.5197755399141</v>
+        <v>221.5051219985187</v>
       </c>
       <c r="N7" t="n">
-        <v>209.4189747528491</v>
+        <v>216.2382252856851</v>
       </c>
       <c r="O7" t="n">
-        <v>193.432318627535</v>
+        <v>199.7310002222914</v>
       </c>
       <c r="P7" t="n">
-        <v>165.5147650515001</v>
+        <v>170.9043752866839</v>
       </c>
       <c r="Q7" t="n">
-        <v>114.5938440235545</v>
+        <v>118.3253307851508</v>
       </c>
       <c r="R7" t="n">
-        <v>61.53307486054718</v>
+        <v>63.53675888213612</v>
       </c>
       <c r="S7" t="n">
-        <v>23.84935392391204</v>
+        <v>24.62595365488373</v>
       </c>
       <c r="T7" t="n">
-        <v>5.847259438830808</v>
+        <v>6.037662085443587</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07464586517656362</v>
+        <v>0.07707653726098206</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31521,43 +31521,43 @@
         <v>35.14799735958417</v>
       </c>
       <c r="I8" t="n">
-        <v>132.312282993323</v>
+        <v>132.3122829933231</v>
       </c>
       <c r="J8" t="n">
-        <v>291.286936740926</v>
+        <v>291.2869367409261</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258715</v>
+        <v>436.5636098258717</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840431</v>
+        <v>541.5957615840433</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934784</v>
+        <v>602.6296390934787</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839013</v>
+        <v>612.3808166839016</v>
       </c>
       <c r="O8" t="n">
-        <v>578.2538401190909</v>
+        <v>578.253840119091</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662302</v>
+        <v>493.5262741662303</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.6176784928398</v>
+        <v>370.61767849284</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141321</v>
+        <v>215.5855378141322</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699498</v>
+        <v>78.20676087699499</v>
       </c>
       <c r="T8" t="n">
         <v>15.0235916945275</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2745602137206622</v>
+        <v>0.2745602137206623</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31597,46 +31597,46 @@
         <v>1.836283316175398</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464134</v>
+        <v>17.73463097464135</v>
       </c>
       <c r="I9" t="n">
-        <v>63.2229124209512</v>
+        <v>63.22291242095122</v>
       </c>
       <c r="J9" t="n">
         <v>173.4885040076064</v>
       </c>
       <c r="K9" t="n">
-        <v>296.519486191358</v>
+        <v>296.5194861913581</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616801</v>
+        <v>398.7070419616803</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730382</v>
+        <v>465.2723121730384</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152847</v>
+        <v>477.5866858152849</v>
       </c>
       <c r="O9" t="n">
-        <v>436.8985133884509</v>
+        <v>436.898513388451</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475635</v>
+        <v>350.6495746475636</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349508</v>
+        <v>234.3999545349509</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867497</v>
+        <v>114.0106430867498</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053861</v>
+        <v>34.10815721053863</v>
       </c>
       <c r="T9" t="n">
-        <v>7.40151038405785</v>
+        <v>7.401510384057852</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062762</v>
+        <v>0.1208081129062763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>13.68736114619437</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017479</v>
+        <v>46.29630948017481</v>
       </c>
       <c r="J10" t="n">
         <v>108.841112100157</v>
@@ -31694,28 +31694,28 @@
         <v>241.3202129282508</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420141</v>
+        <v>235.5821576420142</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595398</v>
+        <v>217.5982526595399</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099894</v>
+        <v>186.1928964099895</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451904</v>
+        <v>128.9103103451905</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153095</v>
+        <v>69.22054011153097</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735641</v>
+        <v>26.82890727735642</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978882</v>
+        <v>6.577770693978883</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419861</v>
+        <v>0.08397154077419863</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>444.22749159829</v>
+        <v>306.4674191928274</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M15" t="n">
-        <v>444.2274915982898</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>422.3544583169084</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K18" t="n">
-        <v>173.8200325543365</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473071</v>
+        <v>361.6013389488605</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R19" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T19" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M21" t="n">
-        <v>444.2274915982894</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>422.3544583169084</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R22" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T22" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868137</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788344</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973021</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197548</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504117</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405814</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656916001</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065984</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781475</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606292</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755148</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996322</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>138.091009184823</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855702</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440765002</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646083</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061158</v>
+        <v>16.11138312061152</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520832</v>
+        <v>23.66518529520826</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400581</v>
+        <v>1.340357307400524</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>77.8914117019844</v>
+        <v>86.32311390923365</v>
       </c>
       <c r="K5" t="n">
-        <v>167.9900634070469</v>
+        <v>180.6269993223962</v>
       </c>
       <c r="L5" t="n">
-        <v>245.681035281191</v>
+        <v>261.3582717184934</v>
       </c>
       <c r="M5" t="n">
-        <v>305.356820169538</v>
+        <v>322.8007663861085</v>
       </c>
       <c r="N5" t="n">
-        <v>314.9582252644795</v>
+        <v>332.6844327679184</v>
       </c>
       <c r="O5" t="n">
-        <v>283.9361600974629</v>
+        <v>300.6745151868947</v>
       </c>
       <c r="P5" t="n">
-        <v>207.4834477308274</v>
+        <v>221.769246544126</v>
       </c>
       <c r="Q5" t="n">
-        <v>107.1520883890166</v>
+        <v>117.8801283511143</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>27.38366498092714</v>
+        <v>32.40552905262197</v>
       </c>
       <c r="K6" t="n">
-        <v>125.7473124573044</v>
+        <v>134.3304780265718</v>
       </c>
       <c r="L6" t="n">
-        <v>215.8732253923152</v>
+        <v>227.4143507286159</v>
       </c>
       <c r="M6" t="n">
-        <v>271.4662640437907</v>
+        <v>284.9342129515393</v>
       </c>
       <c r="N6" t="n">
-        <v>293.2053550635338</v>
+        <v>307.0297605037377</v>
       </c>
       <c r="O6" t="n">
-        <v>245.7813799930014</v>
+        <v>258.428010153961</v>
       </c>
       <c r="P6" t="n">
-        <v>177.7328761729192</v>
+        <v>187.8829118236991</v>
       </c>
       <c r="Q6" t="n">
-        <v>68.38629016872852</v>
+        <v>75.17132020180995</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>29.98243465554489</v>
+        <v>35.15976619535618</v>
       </c>
       <c r="L7" t="n">
-        <v>68.57507023501506</v>
+        <v>75.20027211311159</v>
       </c>
       <c r="M7" t="n">
-        <v>75.59399159230907</v>
+        <v>82.57933805091361</v>
       </c>
       <c r="N7" t="n">
-        <v>81.73343028761593</v>
+        <v>88.55268082045188</v>
       </c>
       <c r="O7" t="n">
-        <v>54.97578017569222</v>
+        <v>61.27446177044857</v>
       </c>
       <c r="P7" t="n">
-        <v>27.78676100235251</v>
+        <v>33.17637123753633</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142397</v>
+        <v>110.2410322142398</v>
       </c>
       <c r="K8" t="n">
-        <v>216.473758780891</v>
+        <v>216.4737587808911</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140559</v>
+        <v>305.8293466140561</v>
       </c>
       <c r="M8" t="n">
-        <v>372.2834058662057</v>
+        <v>372.283405866206</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873104</v>
+        <v>382.9677530873107</v>
       </c>
       <c r="O8" t="n">
-        <v>348.1556286974042</v>
+        <v>348.1556286974043</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109607</v>
+        <v>262.2932784109608</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.3119886183904</v>
+        <v>148.3119886183905</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.65087734093967</v>
+        <v>46.6508773409397</v>
       </c>
       <c r="K9" t="n">
-        <v>158.678047216999</v>
+        <v>158.6780472169991</v>
       </c>
       <c r="L9" t="n">
-        <v>260.152662181806</v>
+        <v>260.1526621818061</v>
       </c>
       <c r="M9" t="n">
-        <v>323.1382782510199</v>
+        <v>323.13827825102</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319514</v>
+        <v>346.2449737319515</v>
       </c>
       <c r="O9" t="n">
-        <v>294.3022689440065</v>
+        <v>294.3022689440066</v>
       </c>
       <c r="P9" t="n">
-        <v>216.6751672332333</v>
+        <v>216.6751672332334</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892929</v>
+        <v>94.41818044892935</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>49.84612367850741</v>
+        <v>49.84612367850744</v>
       </c>
       <c r="L10" t="n">
-        <v>93.99375335563548</v>
+        <v>93.99375335563556</v>
       </c>
       <c r="M10" t="n">
-        <v>102.3944289806457</v>
+        <v>102.3944289806458</v>
       </c>
       <c r="N10" t="n">
-        <v>107.8966131767809</v>
+        <v>107.896613176781</v>
       </c>
       <c r="O10" t="n">
-        <v>79.14171420769702</v>
+        <v>79.14171420769708</v>
       </c>
       <c r="P10" t="n">
-        <v>48.46489236084182</v>
+        <v>48.46489236084184</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>302.0934576762717</v>
+        <v>164.3333852708091</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M15" t="n">
-        <v>302.0934576762715</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>279.758213872464</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K18" t="n">
-        <v>35.97859357997754</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674329</v>
+        <v>223.0469591689863</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M21" t="n">
-        <v>302.093457676271</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>279.758213872464</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326294864</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37466,7 +37466,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096306</v>
       </c>
       <c r="L37" t="n">
         <v>394.3420143191314</v>
